--- a/data/SceneDetail.xlsx
+++ b/data/SceneDetail.xlsx
@@ -1,13 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19001"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19226"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ryant\Documents\808Projects\OneOffs\JurassicPark\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ryant\Documents\808Projects\OneOffs\JurassicPark\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFE1FF5D-DD65-4235-8A22-C00AA9E54CA5}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="10050" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1967,10 +1968,10 @@
   <dimension ref="A1:BE166"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B86" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H13" sqref="H13"/>
+      <selection pane="bottomRight" activeCell="E103" sqref="E103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -9230,7 +9231,9 @@
       <c r="D102" s="17">
         <v>34</v>
       </c>
-      <c r="E102" s="17"/>
+      <c r="E102" s="17">
+        <v>0</v>
+      </c>
       <c r="F102" s="14" t="s">
         <v>147</v>
       </c>

--- a/data/SceneDetail.xlsx
+++ b/data/SceneDetail.xlsx
@@ -8,19 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ryant\Documents\808Projects\OneOffs\JurassicPark\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFE1FF5D-DD65-4235-8A22-C00AA9E54CA5}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DD7F183-18E9-4B08-BD92-1EAFF06085DF}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="10050" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SceneDetail" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="179017"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="862" uniqueCount="334">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="861" uniqueCount="333">
   <si>
     <t>1EXTJUNGLENIGHT</t>
   </si>
@@ -1013,9 +1013,6 @@
   </si>
   <si>
     <t>CREDITS</t>
-  </si>
-  <si>
-    <t>Café</t>
   </si>
   <si>
     <t>Brachiosaurus hill</t>
@@ -1968,10 +1965,10 @@
   <dimension ref="A1:BE166"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B86" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E103" sqref="E103"/>
+      <selection pane="bottomRight" activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2665,8 +2662,9 @@
       <c r="G8" s="14" t="s">
         <v>160</v>
       </c>
-      <c r="H8" s="14" t="s">
-        <v>331</v>
+      <c r="H8" s="14" t="str">
+        <f>"Cafe"</f>
+        <v>Cafe</v>
       </c>
       <c r="I8" s="14" t="s">
         <v>200</v>
@@ -2953,7 +2951,7 @@
         <v>151</v>
       </c>
       <c r="H12" s="14" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="I12" s="14" t="s">
         <v>201</v>
@@ -5420,7 +5418,7 @@
         <v>151</v>
       </c>
       <c r="H46" s="14" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="I46" s="14" t="s">
         <v>202</v>
@@ -8622,7 +8620,7 @@
         <v>151</v>
       </c>
       <c r="H92" s="14" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="I92" s="14" t="s">
         <v>207</v>
@@ -8688,7 +8686,7 @@
         <v>151</v>
       </c>
       <c r="H93" s="14" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="I93" s="14" t="s">
         <v>207</v>
@@ -8927,7 +8925,7 @@
         <v>151</v>
       </c>
       <c r="H97" s="14" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="I97" s="14" t="s">
         <v>239</v>
@@ -9046,7 +9044,7 @@
         <v>151</v>
       </c>
       <c r="H99" s="14" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="I99" s="14" t="s">
         <v>239</v>

--- a/data/SceneDetail.xlsx
+++ b/data/SceneDetail.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ryant\Documents\808Projects\OneOffs\JurassicPark\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DD7F183-18E9-4B08-BD92-1EAFF06085DF}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC1DC9C4-B704-4CFF-9607-71CD954D8E28}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="10050" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SceneDetail" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">SceneDetail!$A$1:$BE$165</definedName>
+  </definedNames>
   <calcPr calcId="179017"/>
 </workbook>
 </file>
@@ -1968,7 +1971,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H9" sqref="H9"/>
+      <selection pane="bottomRight" activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -12711,7 +12714,7 @@
         <v>151</v>
       </c>
       <c r="H165" s="14" t="s">
-        <v>260</v>
+        <v>169</v>
       </c>
       <c r="I165" s="1" t="s">
         <v>256</v>

--- a/data/SceneDetail.xlsx
+++ b/data/SceneDetail.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19226"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ryant\Documents\808Projects\OneOffs\JurassicPark\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC1DC9C4-B704-4CFF-9607-71CD954D8E28}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D276BFAE-69E5-4C11-9EB4-C9389A80FF19}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="10050" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,12 +18,20 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">SceneDetail!$A$1:$BE$165</definedName>
   </definedNames>
-  <calcPr calcId="179017"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="861" uniqueCount="333">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="861" uniqueCount="332">
   <si>
     <t>1EXTJUNGLENIGHT</t>
   </si>
@@ -550,12 +558,6 @@
     <t>T_s</t>
   </si>
   <si>
-    <t>The movie</t>
-  </si>
-  <si>
-    <t>The lab</t>
-  </si>
-  <si>
     <t>Life finds a way</t>
   </si>
   <si>
@@ -1022,6 +1024,9 @@
   </si>
   <si>
     <t>East dock</t>
+  </si>
+  <si>
+    <t>Brachiosaurus tree</t>
   </si>
 </sst>
 </file>
@@ -1968,10 +1973,10 @@
   <dimension ref="A1:BE166"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="F129" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H11" sqref="H11"/>
+      <selection pane="bottomRight" activeCell="N145" sqref="N145"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2028,7 +2033,7 @@
         <v>143</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>172</v>
@@ -2049,151 +2054,151 @@
         <v>163</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>149</v>
       </c>
       <c r="K1" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="M1" s="3" t="s">
         <v>284</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="N1" s="3" t="s">
         <v>285</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="O1" s="3" t="s">
         <v>286</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="P1" s="3" t="s">
         <v>287</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="Q1" s="3" t="s">
         <v>288</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="R1" s="3" t="s">
         <v>289</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="S1" s="3" t="s">
         <v>290</v>
       </c>
-      <c r="R1" s="3" t="s">
+      <c r="T1" s="3" t="s">
         <v>291</v>
       </c>
-      <c r="S1" s="3" t="s">
+      <c r="U1" s="3" t="s">
         <v>292</v>
       </c>
-      <c r="T1" s="3" t="s">
+      <c r="V1" s="3" t="s">
         <v>293</v>
       </c>
-      <c r="U1" s="3" t="s">
+      <c r="W1" s="3" t="s">
         <v>294</v>
       </c>
-      <c r="V1" s="3" t="s">
+      <c r="X1" s="3" t="s">
         <v>295</v>
       </c>
-      <c r="W1" s="3" t="s">
+      <c r="Y1" s="3" t="s">
         <v>296</v>
       </c>
-      <c r="X1" s="3" t="s">
+      <c r="Z1" s="3" t="s">
         <v>297</v>
       </c>
-      <c r="Y1" s="3" t="s">
+      <c r="AA1" s="3" t="s">
         <v>298</v>
       </c>
-      <c r="Z1" s="3" t="s">
+      <c r="AB1" s="3" t="s">
         <v>299</v>
       </c>
-      <c r="AA1" s="3" t="s">
+      <c r="AC1" s="3" t="s">
         <v>300</v>
       </c>
-      <c r="AB1" s="3" t="s">
+      <c r="AD1" s="3" t="s">
         <v>301</v>
       </c>
-      <c r="AC1" s="3" t="s">
+      <c r="AE1" s="3" t="s">
         <v>302</v>
       </c>
-      <c r="AD1" s="3" t="s">
+      <c r="AF1" s="3" t="s">
         <v>303</v>
       </c>
-      <c r="AE1" s="3" t="s">
+      <c r="AG1" s="3" t="s">
         <v>304</v>
       </c>
-      <c r="AF1" s="3" t="s">
+      <c r="AH1" s="3" t="s">
         <v>305</v>
       </c>
-      <c r="AG1" s="3" t="s">
+      <c r="AI1" s="1" t="s">
         <v>306</v>
       </c>
-      <c r="AH1" s="3" t="s">
+      <c r="AJ1" s="13" t="s">
         <v>307</v>
       </c>
-      <c r="AI1" s="1" t="s">
+      <c r="AK1" s="13" t="s">
         <v>308</v>
       </c>
-      <c r="AJ1" s="13" t="s">
+      <c r="AL1" s="1" t="s">
         <v>309</v>
       </c>
-      <c r="AK1" s="13" t="s">
+      <c r="AM1" s="1" t="s">
         <v>310</v>
       </c>
-      <c r="AL1" s="1" t="s">
+      <c r="AN1" s="1" t="s">
         <v>311</v>
       </c>
-      <c r="AM1" s="1" t="s">
+      <c r="AO1" s="1" t="s">
         <v>312</v>
       </c>
-      <c r="AN1" s="1" t="s">
+      <c r="AP1" s="9" t="s">
         <v>313</v>
       </c>
-      <c r="AO1" s="1" t="s">
+      <c r="AQ1" s="1" t="s">
         <v>314</v>
       </c>
-      <c r="AP1" s="9" t="s">
+      <c r="AR1" s="1" t="s">
         <v>315</v>
       </c>
-      <c r="AQ1" s="1" t="s">
+      <c r="AS1" s="1" t="s">
         <v>316</v>
       </c>
-      <c r="AR1" s="1" t="s">
+      <c r="AT1" s="1" t="s">
         <v>317</v>
       </c>
-      <c r="AS1" s="1" t="s">
+      <c r="AU1" s="1" t="s">
         <v>318</v>
       </c>
-      <c r="AT1" s="1" t="s">
+      <c r="AV1" s="7" t="s">
         <v>319</v>
       </c>
-      <c r="AU1" s="1" t="s">
+      <c r="AW1" s="5" t="s">
+        <v>324</v>
+      </c>
+      <c r="AX1" s="5" t="s">
+        <v>325</v>
+      </c>
+      <c r="AY1" s="11" t="s">
+        <v>326</v>
+      </c>
+      <c r="AZ1" s="11" t="s">
+        <v>327</v>
+      </c>
+      <c r="BA1" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="BB1" s="20" t="s">
         <v>320</v>
       </c>
-      <c r="AV1" s="7" t="s">
+      <c r="BC1" s="20" t="s">
         <v>321</v>
       </c>
-      <c r="AW1" s="5" t="s">
-        <v>326</v>
-      </c>
-      <c r="AX1" s="5" t="s">
-        <v>327</v>
-      </c>
-      <c r="AY1" s="11" t="s">
-        <v>328</v>
-      </c>
-      <c r="AZ1" s="11" t="s">
-        <v>329</v>
-      </c>
-      <c r="BA1" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="BB1" s="20" t="s">
+      <c r="BD1" s="20" t="s">
         <v>322</v>
       </c>
-      <c r="BC1" s="20" t="s">
+      <c r="BE1" s="20" t="s">
         <v>323</v>
-      </c>
-      <c r="BD1" s="20" t="s">
-        <v>324</v>
-      </c>
-      <c r="BE1" s="20" t="s">
-        <v>325</v>
       </c>
     </row>
     <row r="2" spans="1:57" s="15" customFormat="1" x14ac:dyDescent="0.35">
@@ -2211,16 +2216,16 @@
         <v>0</v>
       </c>
       <c r="F2" s="15" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="G2" s="15" t="s">
         <v>151</v>
       </c>
       <c r="H2" s="15" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="I2" s="15" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="J2" s="15" t="s">
         <v>150</v>
@@ -2263,10 +2268,10 @@
       <c r="AP2" s="10"/>
       <c r="AV2" s="8"/>
       <c r="AW2" s="6" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="AX2" s="6" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="AY2" s="12"/>
       <c r="AZ2" s="12"/>
@@ -2301,7 +2306,7 @@
         <v>164</v>
       </c>
       <c r="I3" s="14" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="K3" s="2">
         <v>1</v>
@@ -2372,7 +2377,7 @@
         <v>165</v>
       </c>
       <c r="I4" s="14" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="J4" s="14" t="s">
         <v>154</v>
@@ -2446,7 +2451,7 @@
         <v>166</v>
       </c>
       <c r="I5" s="14" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="J5" s="14" t="s">
         <v>156</v>
@@ -2526,7 +2531,7 @@
         <v>167</v>
       </c>
       <c r="I6" s="14" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="K6" s="2"/>
       <c r="L6" s="2"/>
@@ -2586,7 +2591,7 @@
         <v>16</v>
       </c>
       <c r="F7" s="14" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="G7" s="14" t="s">
         <v>155</v>
@@ -2595,7 +2600,7 @@
         <v>168</v>
       </c>
       <c r="I7" s="14" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="J7" s="14" t="s">
         <v>158</v>
@@ -2670,7 +2675,7 @@
         <v>Cafe</v>
       </c>
       <c r="I8" s="14" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="J8" s="14" t="s">
         <v>161</v>
@@ -2733,16 +2738,16 @@
         <v>18</v>
       </c>
       <c r="F9" s="14" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="G9" s="14" t="s">
         <v>162</v>
       </c>
       <c r="H9" s="14" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="I9" s="14" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="K9" s="2"/>
       <c r="L9" s="2"/>
@@ -2796,16 +2801,16 @@
         <v>28</v>
       </c>
       <c r="F10" s="14" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="G10" s="14" t="s">
         <v>162</v>
       </c>
       <c r="H10" s="14" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="I10" s="14" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="K10" s="2">
         <v>1</v>
@@ -2878,7 +2883,7 @@
         <v>169</v>
       </c>
       <c r="I11" s="14" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="K11" s="2">
         <v>1</v>
@@ -2954,10 +2959,10 @@
         <v>151</v>
       </c>
       <c r="H12" s="14" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="I12" s="14" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="J12" s="14" t="s">
         <v>170</v>
@@ -3082,13 +3087,13 @@
         <v>170</v>
       </c>
       <c r="G14" s="14" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="H14" s="14" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="I14" s="14" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="K14" s="2">
         <v>1</v>
@@ -3159,13 +3164,13 @@
         <v>170</v>
       </c>
       <c r="G15" s="14" t="s">
+        <v>262</v>
+      </c>
+      <c r="H15" s="14" t="s">
         <v>264</v>
       </c>
-      <c r="H15" s="14" t="s">
-        <v>266</v>
-      </c>
       <c r="I15" s="14" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="K15" s="2">
         <v>1</v>
@@ -3237,16 +3242,16 @@
         <v>48</v>
       </c>
       <c r="F16" s="14" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="G16" s="14" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="H16" s="14" t="s">
         <v>171</v>
       </c>
       <c r="I16" s="14" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="K16" s="2">
         <v>1</v>
@@ -3312,16 +3317,16 @@
         <v>45</v>
       </c>
       <c r="F17" s="14" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="G17" s="14" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="H17" s="14" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="I17" s="14" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="K17" s="2">
         <v>1</v>
@@ -3434,16 +3439,16 @@
         <v>2</v>
       </c>
       <c r="F19" s="14" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="G19" s="14" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="H19" s="14" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="I19" s="14" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="K19" s="2">
         <v>1</v>
@@ -3509,16 +3514,16 @@
         <v>46</v>
       </c>
       <c r="F20" s="14" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="G20" s="14" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="H20" s="14" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="I20" s="14" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="K20" s="2"/>
       <c r="L20" s="2"/>
@@ -3576,16 +3581,16 @@
         <v>0</v>
       </c>
       <c r="F21" s="14" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="G21" s="14" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="H21" s="14" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="I21" s="14" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="K21" s="2">
         <v>1</v>
@@ -3651,16 +3656,16 @@
         <v>31</v>
       </c>
       <c r="F22" s="14" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="G22" s="14" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="H22" s="14" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="I22" s="14" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="K22" s="2"/>
       <c r="L22" s="2"/>
@@ -3718,16 +3723,16 @@
         <v>36</v>
       </c>
       <c r="F23" s="14" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="G23" s="14" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="H23" s="14" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="I23" s="14" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="K23" s="2"/>
       <c r="L23" s="2"/>
@@ -3785,16 +3790,16 @@
         <v>58</v>
       </c>
       <c r="F24" s="14" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="G24" s="14" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="H24" s="14" t="s">
         <v>171</v>
       </c>
       <c r="I24" s="14" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="K24" s="2">
         <v>1</v>
@@ -3858,16 +3863,16 @@
         <v>10</v>
       </c>
       <c r="F25" s="14" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="G25" s="14" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="H25" s="14" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="I25" s="14" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="K25" s="2">
         <v>1</v>
@@ -3937,19 +3942,19 @@
         <v>0</v>
       </c>
       <c r="F26" s="14" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="G26" s="14" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="H26" s="14" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="I26" s="14" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="J26" s="14" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="K26" s="2">
         <v>1</v>
@@ -4022,16 +4027,16 @@
         <v>41</v>
       </c>
       <c r="F27" s="14" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="G27" s="14" t="s">
         <v>151</v>
       </c>
       <c r="H27" s="14" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="I27" s="14" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="K27" s="2">
         <v>1</v>
@@ -4083,15 +4088,15 @@
       <c r="AP27" s="9"/>
       <c r="AV27" s="7"/>
       <c r="AW27" s="5" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="AX27" s="6" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="AY27" s="11"/>
       <c r="AZ27" s="11"/>
       <c r="BA27" s="14" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="BB27" s="21"/>
       <c r="BC27" s="21"/>
@@ -4115,19 +4120,19 @@
         <v>13</v>
       </c>
       <c r="F28" s="14" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="G28" s="14" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="H28" s="14" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="I28" s="14" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="J28" s="14" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="K28" s="2">
         <v>1</v>
@@ -4193,16 +4198,16 @@
         <v>9</v>
       </c>
       <c r="F29" s="14" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="G29" s="14" t="s">
+        <v>262</v>
+      </c>
+      <c r="H29" s="14" t="s">
         <v>264</v>
       </c>
-      <c r="H29" s="14" t="s">
-        <v>266</v>
-      </c>
       <c r="I29" s="14" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="K29" s="2">
         <v>1</v>
@@ -4255,7 +4260,7 @@
       <c r="AY29" s="11"/>
       <c r="AZ29" s="11"/>
       <c r="BA29" s="14" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="BB29" s="21"/>
       <c r="BC29" s="21"/>
@@ -4279,16 +4284,16 @@
         <v>28</v>
       </c>
       <c r="F30" s="14" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="G30" s="14" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="H30" s="14" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="I30" s="14" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="K30" s="2"/>
       <c r="L30" s="2"/>
@@ -4352,16 +4357,16 @@
         <v>13</v>
       </c>
       <c r="F31" s="14" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="G31" s="14" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="H31" s="14" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="I31" s="14" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="K31" s="2">
         <v>1</v>
@@ -4429,16 +4434,16 @@
         <v>26</v>
       </c>
       <c r="F32" s="14" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="G32" s="14" t="s">
         <v>151</v>
       </c>
       <c r="H32" s="14" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="I32" s="14" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="K32" s="2">
         <v>1</v>
@@ -4485,7 +4490,7 @@
       <c r="AY32" s="11"/>
       <c r="AZ32" s="11"/>
       <c r="BA32" s="14" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="BB32" s="21"/>
       <c r="BC32" s="21"/>
@@ -4507,19 +4512,19 @@
         <v>26</v>
       </c>
       <c r="F33" s="14" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="G33" s="14" t="s">
         <v>151</v>
       </c>
       <c r="H33" s="14" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="I33" s="14" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="J33" s="14" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="K33" s="2">
         <v>1</v>
@@ -4566,7 +4571,7 @@
       <c r="AY33" s="11"/>
       <c r="AZ33" s="11"/>
       <c r="BA33" s="14" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="BB33" s="21"/>
       <c r="BC33" s="21"/>
@@ -4588,16 +4593,16 @@
         <v>54</v>
       </c>
       <c r="F34" s="14" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="G34" s="14" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="H34" s="14" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="I34" s="14" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="K34" s="2"/>
       <c r="L34" s="2"/>
@@ -4661,19 +4666,19 @@
         <v>13</v>
       </c>
       <c r="F35" s="14" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="G35" s="14" t="s">
         <v>151</v>
       </c>
       <c r="H35" s="14" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="I35" s="14" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="J35" s="14" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="K35" s="2">
         <v>1</v>
@@ -4739,16 +4744,16 @@
         <v>31</v>
       </c>
       <c r="F36" s="14" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="G36" s="14" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="H36" s="14" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="I36" s="14" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="K36" s="2"/>
       <c r="L36" s="2"/>
@@ -4804,19 +4809,19 @@
         <v>52</v>
       </c>
       <c r="F37" s="14" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="G37" s="14" t="s">
         <v>151</v>
       </c>
       <c r="H37" s="14" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="I37" s="14" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="J37" s="14" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="K37" s="2"/>
       <c r="L37" s="2"/>
@@ -4876,16 +4881,16 @@
         <v>42</v>
       </c>
       <c r="F38" s="14" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="G38" s="14" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="H38" s="14" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="I38" s="14" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="K38" s="2"/>
       <c r="L38" s="2"/>
@@ -4949,19 +4954,19 @@
         <v>11</v>
       </c>
       <c r="F39" s="14" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="G39" s="14" t="s">
         <v>151</v>
       </c>
       <c r="H39" s="14" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="I39" s="14" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="J39" s="14" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="K39" s="2">
         <v>1</v>
@@ -5030,16 +5035,16 @@
         <v>29</v>
       </c>
       <c r="F40" s="14" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="G40" s="14" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="H40" s="14" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="I40" s="14" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="K40" s="2"/>
       <c r="L40" s="2"/>
@@ -5127,7 +5132,7 @@
       <c r="AY41" s="12"/>
       <c r="AZ41" s="12"/>
       <c r="BA41" s="15" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="BB41" s="21"/>
       <c r="BC41" s="21"/>
@@ -5149,16 +5154,16 @@
         <v>43</v>
       </c>
       <c r="F42" s="14" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="G42" s="14" t="s">
         <v>151</v>
       </c>
       <c r="H42" s="14" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="I42" s="14" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="K42" s="2"/>
       <c r="L42" s="2"/>
@@ -5220,16 +5225,16 @@
         <v>30</v>
       </c>
       <c r="F43" s="15" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="G43" s="14" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="H43" s="15" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="I43" s="14" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="K43" s="2"/>
       <c r="L43" s="2"/>
@@ -5285,16 +5290,16 @@
         <v>39</v>
       </c>
       <c r="F44" s="14" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="G44" s="14" t="s">
         <v>151</v>
       </c>
       <c r="H44" s="14" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="I44" s="14" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="K44" s="2">
         <v>1</v>
@@ -5346,7 +5351,7 @@
       <c r="AY44" s="11"/>
       <c r="AZ44" s="11"/>
       <c r="BA44" s="14" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="BB44" s="21"/>
       <c r="BC44" s="21"/>
@@ -5415,16 +5420,16 @@
         <v>13</v>
       </c>
       <c r="F46" s="14" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="G46" s="14" t="s">
         <v>151</v>
       </c>
       <c r="H46" s="14" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="I46" s="14" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="K46" s="2"/>
       <c r="L46" s="2"/>
@@ -5478,16 +5483,16 @@
         <v>19</v>
       </c>
       <c r="F47" s="14" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="G47" s="14" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="H47" s="14" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="I47" s="14" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="K47" s="2"/>
       <c r="L47" s="2"/>
@@ -5549,19 +5554,19 @@
         <v>43</v>
       </c>
       <c r="F48" s="14" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="G48" s="14" t="s">
         <v>151</v>
       </c>
       <c r="H48" s="14" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="I48" s="14" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="J48" s="14" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="K48" s="2"/>
       <c r="L48" s="2"/>
@@ -5619,16 +5624,16 @@
         <v>16</v>
       </c>
       <c r="F49" s="14" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="G49" s="14" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="H49" s="14" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="I49" s="14" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="K49" s="2"/>
       <c r="L49" s="2"/>
@@ -5684,16 +5689,16 @@
         <v>32</v>
       </c>
       <c r="F50" s="14" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="G50" s="14" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="H50" s="14" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="I50" s="14" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="K50" s="2"/>
       <c r="L50" s="2"/>
@@ -5753,16 +5758,16 @@
         <v>47</v>
       </c>
       <c r="F51" s="14" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="G51" s="14" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="H51" s="14" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="I51" s="14" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="K51" s="2"/>
       <c r="L51" s="2"/>
@@ -5794,7 +5799,7 @@
       <c r="AK51" s="13"/>
       <c r="AP51" s="9"/>
       <c r="AV51" s="7" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="AW51" s="5"/>
       <c r="AX51" s="5"/>
@@ -5867,16 +5872,16 @@
         <v>40</v>
       </c>
       <c r="F53" s="14" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="G53" s="14" t="s">
         <v>151</v>
       </c>
       <c r="H53" s="14" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="I53" s="14" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="K53" s="2"/>
       <c r="L53" s="2"/>
@@ -5934,16 +5939,16 @@
         <v>19</v>
       </c>
       <c r="F54" s="14" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="G54" s="14" t="s">
         <v>151</v>
       </c>
       <c r="H54" s="14" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="I54" s="14" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="K54" s="2"/>
       <c r="L54" s="2"/>
@@ -5999,16 +6004,16 @@
         <v>2</v>
       </c>
       <c r="F55" s="14" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="G55" s="14" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="H55" s="14" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="I55" s="14" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="K55" s="2"/>
       <c r="L55" s="2"/>
@@ -6068,16 +6073,16 @@
         <v>10</v>
       </c>
       <c r="F56" s="14" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="G56" s="14" t="s">
         <v>151</v>
       </c>
       <c r="H56" s="14" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="I56" s="14" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="K56" s="2"/>
       <c r="L56" s="2"/>
@@ -6133,16 +6138,16 @@
         <v>45</v>
       </c>
       <c r="F57" s="14" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="G57" s="14" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="H57" s="14" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="I57" s="14" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="K57" s="2"/>
       <c r="L57" s="2"/>
@@ -6204,16 +6209,16 @@
         <v>47</v>
       </c>
       <c r="F58" s="14" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="G58" s="14" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="H58" s="14" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="I58" s="14" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="K58" s="2"/>
       <c r="L58" s="2"/>
@@ -6273,16 +6278,16 @@
         <v>24</v>
       </c>
       <c r="F59" s="14" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="G59" s="14" t="s">
         <v>151</v>
       </c>
       <c r="H59" s="14" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="I59" s="14" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="K59" s="2">
         <v>1</v>
@@ -6346,19 +6351,19 @@
         <v>1</v>
       </c>
       <c r="F60" s="14" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="G60" s="14" t="s">
         <v>151</v>
       </c>
       <c r="H60" s="14" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="I60" s="14" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="J60" s="14" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="K60" s="2">
         <v>1</v>
@@ -6422,16 +6427,16 @@
         <v>34</v>
       </c>
       <c r="F61" s="14" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="G61" s="14" t="s">
         <v>151</v>
       </c>
       <c r="H61" s="14" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="I61" s="14" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="K61" s="2"/>
       <c r="L61" s="2">
@@ -6493,16 +6498,16 @@
         <v>44</v>
       </c>
       <c r="F62" s="14" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="G62" s="14" t="s">
         <v>151</v>
       </c>
       <c r="H62" s="14" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="I62" s="14" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="K62" s="2">
         <v>1</v>
@@ -6546,7 +6551,7 @@
       <c r="AP62" s="9"/>
       <c r="AV62" s="7"/>
       <c r="AW62" s="5" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="AX62" s="5" t="s">
         <v>148</v>
@@ -6573,16 +6578,16 @@
         <v>30</v>
       </c>
       <c r="F63" s="14" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="G63" s="14" t="s">
         <v>151</v>
       </c>
       <c r="H63" s="14" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="I63" s="14" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="K63" s="2">
         <v>1</v>
@@ -6641,19 +6646,19 @@
         <v>40</v>
       </c>
       <c r="F64" s="14" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="G64" s="14" t="s">
         <v>151</v>
       </c>
       <c r="H64" s="14" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="I64" s="14" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="J64" s="14" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="K64" s="2"/>
       <c r="L64" s="2">
@@ -6718,16 +6723,16 @@
         <v>54</v>
       </c>
       <c r="F65" s="14" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="G65" s="14" t="s">
         <v>151</v>
       </c>
       <c r="H65" s="14" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="I65" s="14" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="K65" s="2"/>
       <c r="L65" s="2">
@@ -6792,16 +6797,16 @@
         <v>17</v>
       </c>
       <c r="F66" s="14" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="G66" s="14" t="s">
         <v>151</v>
       </c>
       <c r="H66" s="14" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="I66" s="14" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="K66" s="2"/>
       <c r="L66" s="2">
@@ -6866,16 +6871,16 @@
         <v>34</v>
       </c>
       <c r="F67" s="14" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="G67" s="14" t="s">
         <v>151</v>
       </c>
       <c r="H67" s="14" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="I67" s="14" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="K67" s="2"/>
       <c r="L67" s="2">
@@ -6940,16 +6945,16 @@
         <v>42</v>
       </c>
       <c r="F68" s="14" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="G68" s="14" t="s">
         <v>151</v>
       </c>
       <c r="H68" s="14" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="I68" s="14" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="K68" s="2"/>
       <c r="L68" s="2">
@@ -7014,19 +7019,19 @@
         <v>53</v>
       </c>
       <c r="F69" s="14" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="G69" s="14" t="s">
         <v>151</v>
       </c>
       <c r="H69" s="14" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="I69" s="14" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="J69" s="14" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="K69" s="2"/>
       <c r="L69" s="2">
@@ -7091,16 +7096,16 @@
         <v>15</v>
       </c>
       <c r="F70" s="14" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="G70" s="14" t="s">
         <v>151</v>
       </c>
       <c r="H70" s="14" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="I70" s="14" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="K70" s="2"/>
       <c r="L70" s="2">
@@ -7165,16 +7170,16 @@
         <v>19</v>
       </c>
       <c r="F71" s="14" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="G71" s="14" t="s">
         <v>151</v>
       </c>
       <c r="H71" s="14" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="I71" s="14" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="K71" s="2"/>
       <c r="L71" s="2">
@@ -7239,16 +7244,16 @@
         <v>28</v>
       </c>
       <c r="F72" s="14" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="G72" s="14" t="s">
         <v>151</v>
       </c>
       <c r="H72" s="14" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="I72" s="14" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="K72" s="2"/>
       <c r="L72" s="2">
@@ -7313,16 +7318,16 @@
         <v>57</v>
       </c>
       <c r="F73" s="14" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="G73" s="14" t="s">
         <v>151</v>
       </c>
       <c r="H73" s="14" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="I73" s="14" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="K73" s="2"/>
       <c r="L73" s="2">
@@ -7387,16 +7392,16 @@
         <v>1</v>
       </c>
       <c r="F74" s="14" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="G74" s="14" t="s">
         <v>151</v>
       </c>
       <c r="H74" s="14" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="I74" s="14" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="K74" s="2"/>
       <c r="L74" s="2">
@@ -7461,16 +7466,16 @@
         <v>30</v>
       </c>
       <c r="F75" s="14" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="G75" s="14" t="s">
         <v>151</v>
       </c>
       <c r="H75" s="14" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="I75" s="14" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="K75" s="2">
         <v>1</v>
@@ -7508,13 +7513,13 @@
       <c r="AP75" s="9"/>
       <c r="AV75" s="7"/>
       <c r="AW75" s="5" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="AX75" s="5" t="s">
         <v>148</v>
       </c>
       <c r="AY75" s="11" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="AZ75" s="11" t="s">
         <v>148</v>
@@ -7539,16 +7544,16 @@
         <v>56</v>
       </c>
       <c r="F76" s="14" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="G76" s="14" t="s">
         <v>151</v>
       </c>
       <c r="H76" s="14" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="I76" s="14" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="K76" s="2"/>
       <c r="L76" s="2">
@@ -7611,16 +7616,16 @@
         <v>47</v>
       </c>
       <c r="F77" s="14" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="G77" s="14" t="s">
         <v>151</v>
       </c>
       <c r="H77" s="14" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="I77" s="14" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="K77" s="2"/>
       <c r="L77" s="2">
@@ -7683,16 +7688,16 @@
         <v>49</v>
       </c>
       <c r="F78" s="14" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="G78" s="14" t="s">
         <v>151</v>
       </c>
       <c r="H78" s="14" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="I78" s="14" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="K78" s="2"/>
       <c r="L78" s="2">
@@ -7755,16 +7760,16 @@
         <v>51</v>
       </c>
       <c r="F79" s="14" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="G79" s="14" t="s">
         <v>151</v>
       </c>
       <c r="H79" s="14" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="I79" s="14" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="K79" s="2"/>
       <c r="L79" s="2">
@@ -7827,16 +7832,16 @@
         <v>56</v>
       </c>
       <c r="F80" s="14" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="G80" s="14" t="s">
         <v>151</v>
       </c>
       <c r="H80" s="14" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="I80" s="14" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="K80" s="2"/>
       <c r="L80" s="2">
@@ -7899,16 +7904,16 @@
         <v>45</v>
       </c>
       <c r="F81" s="14" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="G81" s="14" t="s">
         <v>151</v>
       </c>
       <c r="H81" s="14" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="I81" s="14" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="K81" s="2"/>
       <c r="L81" s="2"/>
@@ -7964,16 +7969,16 @@
         <v>47</v>
       </c>
       <c r="F82" s="14" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="G82" s="14" t="s">
         <v>151</v>
       </c>
       <c r="H82" s="14" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="I82" s="14" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="K82" s="2"/>
       <c r="L82" s="2"/>
@@ -8009,7 +8014,7 @@
       </c>
       <c r="AV82" s="7"/>
       <c r="AW82" s="5" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="AX82" s="5" t="s">
         <v>146</v>
@@ -8036,16 +8041,16 @@
         <v>49</v>
       </c>
       <c r="F83" s="14" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="G83" s="14" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="H83" s="14" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="I83" s="14" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="K83" s="2"/>
       <c r="L83" s="2"/>
@@ -8107,16 +8112,16 @@
         <v>29</v>
       </c>
       <c r="F84" s="14" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="G84" s="14" t="s">
         <v>151</v>
       </c>
       <c r="H84" s="14" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="I84" s="14" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="K84" s="2"/>
       <c r="L84" s="2">
@@ -8174,19 +8179,19 @@
         <v>12</v>
       </c>
       <c r="F85" s="14" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="G85" s="14" t="s">
         <v>151</v>
       </c>
       <c r="H85" s="14" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="I85" s="14" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="J85" s="14" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="K85" s="2"/>
       <c r="L85" s="2"/>
@@ -8291,16 +8296,16 @@
         <v>22</v>
       </c>
       <c r="F87" s="17" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="G87" s="14" t="s">
         <v>151</v>
       </c>
       <c r="H87" s="14" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="I87" s="14" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="K87" s="2"/>
       <c r="L87" s="2"/>
@@ -8360,16 +8365,16 @@
         <v>47</v>
       </c>
       <c r="F88" s="17" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="G88" s="14" t="s">
         <v>151</v>
       </c>
       <c r="H88" s="14" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="I88" s="14" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="K88" s="2"/>
       <c r="L88" s="2"/>
@@ -8427,16 +8432,16 @@
         <v>2</v>
       </c>
       <c r="F89" s="14" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="G89" s="14" t="s">
         <v>151</v>
       </c>
       <c r="H89" s="14" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="I89" s="14" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="K89" s="2"/>
       <c r="L89" s="2"/>
@@ -8542,19 +8547,19 @@
         <v>22</v>
       </c>
       <c r="F91" s="14" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="G91" s="14" t="s">
         <v>151</v>
       </c>
       <c r="H91" s="14" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="I91" s="14" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="J91" s="14" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="K91" s="2"/>
       <c r="L91" s="2"/>
@@ -8617,7 +8622,7 @@
         <v>43</v>
       </c>
       <c r="F92" s="14" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="G92" s="14" t="s">
         <v>151</v>
@@ -8626,7 +8631,7 @@
         <v>331</v>
       </c>
       <c r="I92" s="14" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="K92" s="2"/>
       <c r="L92" s="2"/>
@@ -8683,7 +8688,7 @@
         <v>52</v>
       </c>
       <c r="F93" s="14" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="G93" s="14" t="s">
         <v>151</v>
@@ -8692,10 +8697,10 @@
         <v>331</v>
       </c>
       <c r="I93" s="14" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="J93" s="14" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="K93" s="2"/>
       <c r="L93" s="2">
@@ -8805,19 +8810,19 @@
         <v>49</v>
       </c>
       <c r="F95" s="14" t="s">
+        <v>233</v>
+      </c>
+      <c r="G95" s="14" t="s">
+        <v>262</v>
+      </c>
+      <c r="H95" s="14" t="s">
+        <v>234</v>
+      </c>
+      <c r="I95" s="14" t="s">
+        <v>205</v>
+      </c>
+      <c r="J95" s="14" t="s">
         <v>235</v>
-      </c>
-      <c r="G95" s="14" t="s">
-        <v>264</v>
-      </c>
-      <c r="H95" s="14" t="s">
-        <v>236</v>
-      </c>
-      <c r="I95" s="14" t="s">
-        <v>207</v>
-      </c>
-      <c r="J95" s="14" t="s">
-        <v>237</v>
       </c>
       <c r="K95" s="2"/>
       <c r="L95" s="2"/>
@@ -8922,7 +8927,7 @@
         <v>29</v>
       </c>
       <c r="F97" s="14" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="G97" s="14" t="s">
         <v>151</v>
@@ -8931,7 +8936,7 @@
         <v>331</v>
       </c>
       <c r="I97" s="14" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="K97" s="2"/>
       <c r="L97" s="2">
@@ -9041,7 +9046,7 @@
         <v>10</v>
       </c>
       <c r="F99" s="14" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="G99" s="14" t="s">
         <v>151</v>
@@ -9050,10 +9055,10 @@
         <v>331</v>
       </c>
       <c r="I99" s="14" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="J99" s="14" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="K99" s="2"/>
       <c r="L99" s="2">
@@ -9113,19 +9118,19 @@
         <v>34</v>
       </c>
       <c r="F100" s="14" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="G100" s="14" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="H100" s="14" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="I100" s="14" t="s">
+        <v>237</v>
+      </c>
+      <c r="J100" s="14" t="s">
         <v>239</v>
-      </c>
-      <c r="J100" s="14" t="s">
-        <v>241</v>
       </c>
       <c r="K100" s="2"/>
       <c r="L100" s="2"/>
@@ -9242,13 +9247,13 @@
         <v>151</v>
       </c>
       <c r="H102" s="14" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="I102" s="14" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="J102" s="14" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="K102" s="2"/>
       <c r="L102" s="2">
@@ -9412,19 +9417,19 @@
         <v>55</v>
       </c>
       <c r="F105" s="14" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="G105" s="14" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="H105" s="14" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="I105" s="14" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="J105" s="14" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="K105" s="2"/>
       <c r="L105" s="2"/>
@@ -9486,19 +9491,19 @@
         <v>46</v>
       </c>
       <c r="F106" s="14" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="G106" s="14" t="s">
         <v>151</v>
       </c>
       <c r="H106" s="14" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="I106" s="14" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="J106" s="14" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="K106" s="2"/>
       <c r="L106" s="2">
@@ -9561,16 +9566,16 @@
         <v>33</v>
       </c>
       <c r="F107" s="14" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="G107" s="14" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="H107" s="14" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="I107" s="14" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="K107" s="2"/>
       <c r="L107" s="2"/>
@@ -9628,16 +9633,16 @@
         <v>44</v>
       </c>
       <c r="F108" s="14" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="G108" s="14" t="s">
         <v>151</v>
       </c>
       <c r="H108" s="14" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="I108" s="14" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="K108" s="2"/>
       <c r="L108" s="2"/>
@@ -9695,19 +9700,19 @@
         <v>24</v>
       </c>
       <c r="F109" s="14" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="G109" s="14" t="s">
         <v>151</v>
       </c>
       <c r="H109" s="14" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="I109" s="14" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="J109" s="14" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="K109" s="2"/>
       <c r="L109" s="2"/>
@@ -9815,16 +9820,16 @@
         <v>32</v>
       </c>
       <c r="F111" s="14" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="G111" s="14" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="H111" s="14" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="I111" s="14" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="K111" s="2"/>
       <c r="L111" s="2"/>
@@ -9882,16 +9887,16 @@
         <v>16</v>
       </c>
       <c r="F112" s="14" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="G112" s="14" t="s">
         <v>151</v>
       </c>
       <c r="H112" s="14" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="I112" s="14" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="K112" s="2"/>
       <c r="L112" s="2"/>
@@ -9949,16 +9954,16 @@
         <v>31</v>
       </c>
       <c r="F113" s="14" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="G113" s="14" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="H113" s="14" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="I113" s="14" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="K113" s="2"/>
       <c r="L113" s="2"/>
@@ -10016,16 +10021,16 @@
         <v>52</v>
       </c>
       <c r="F114" s="14" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="G114" s="14" t="s">
         <v>151</v>
       </c>
       <c r="H114" s="14" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="I114" s="14" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="K114" s="2"/>
       <c r="L114" s="2"/>
@@ -10083,16 +10088,16 @@
         <v>59</v>
       </c>
       <c r="F115" s="14" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="G115" s="14" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="H115" s="14" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="I115" s="14" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="K115" s="2"/>
       <c r="L115" s="2"/>
@@ -10152,16 +10157,16 @@
         <v>7</v>
       </c>
       <c r="F116" s="14" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="G116" s="14" t="s">
         <v>151</v>
       </c>
       <c r="H116" s="14" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="I116" s="14" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="K116" s="2"/>
       <c r="L116" s="2"/>
@@ -10219,16 +10224,16 @@
         <v>12</v>
       </c>
       <c r="F117" s="14" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="G117" s="14" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="H117" s="14" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="I117" s="14" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="K117" s="2"/>
       <c r="L117" s="2"/>
@@ -10288,16 +10293,16 @@
         <v>14</v>
       </c>
       <c r="F118" s="14" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="G118" s="14" t="s">
         <v>151</v>
       </c>
       <c r="H118" s="14" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="I118" s="14" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="K118" s="2"/>
       <c r="L118" s="2"/>
@@ -10353,16 +10358,16 @@
         <v>19</v>
       </c>
       <c r="F119" s="14" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="G119" s="14" t="s">
         <v>151</v>
       </c>
       <c r="H119" s="14" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="I119" s="14" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="K119" s="2"/>
       <c r="L119" s="2">
@@ -10422,16 +10427,16 @@
         <v>30</v>
       </c>
       <c r="F120" s="14" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="G120" s="14" t="s">
         <v>151</v>
       </c>
       <c r="H120" s="14" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="I120" s="14" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="K120" s="2"/>
       <c r="L120" s="2"/>
@@ -10489,16 +10494,16 @@
         <v>58</v>
       </c>
       <c r="F121" s="14" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="G121" s="14" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="H121" s="14" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="I121" s="14" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="K121" s="2"/>
       <c r="L121" s="2"/>
@@ -10558,16 +10563,16 @@
         <v>8</v>
       </c>
       <c r="F122" s="14" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="G122" s="14" t="s">
         <v>151</v>
       </c>
       <c r="H122" s="14" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="I122" s="14" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="K122" s="2"/>
       <c r="L122" s="2"/>
@@ -10625,16 +10630,16 @@
         <v>20</v>
       </c>
       <c r="F123" s="14" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="G123" s="14" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="H123" s="14" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="I123" s="14" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="K123" s="2"/>
       <c r="L123" s="2"/>
@@ -10694,16 +10699,16 @@
         <v>27</v>
       </c>
       <c r="F124" s="14" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="G124" s="14" t="s">
         <v>151</v>
       </c>
       <c r="H124" s="14" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="I124" s="14" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="K124" s="2"/>
       <c r="L124" s="2"/>
@@ -10759,16 +10764,16 @@
         <v>45</v>
       </c>
       <c r="F125" s="14" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="G125" s="14" t="s">
         <v>151</v>
       </c>
       <c r="H125" s="14" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="I125" s="14" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="K125" s="2"/>
       <c r="L125" s="2">
@@ -10828,16 +10833,16 @@
         <v>36</v>
       </c>
       <c r="F126" s="14" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="G126" s="14" t="s">
         <v>151</v>
       </c>
       <c r="H126" s="14" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="I126" s="14" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="K126" s="2"/>
       <c r="L126" s="2"/>
@@ -10893,16 +10898,16 @@
         <v>38</v>
       </c>
       <c r="F127" s="14" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="G127" s="14" t="s">
         <v>151</v>
       </c>
       <c r="H127" s="14" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="I127" s="14" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="K127" s="2"/>
       <c r="L127" s="2">
@@ -10962,16 +10967,16 @@
         <v>47</v>
       </c>
       <c r="F128" s="14" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="G128" s="14" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="H128" s="14" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="I128" s="14" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="K128" s="2"/>
       <c r="L128" s="2"/>
@@ -11031,16 +11036,16 @@
         <v>54</v>
       </c>
       <c r="F129" s="14" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="G129" s="14" t="s">
         <v>151</v>
       </c>
       <c r="H129" s="14" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="I129" s="14" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="K129" s="2"/>
       <c r="L129" s="2"/>
@@ -11096,16 +11101,16 @@
         <v>5</v>
       </c>
       <c r="F130" s="14" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="G130" s="14" t="s">
         <v>151</v>
       </c>
       <c r="H130" s="14" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="I130" s="14" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="K130" s="2"/>
       <c r="L130" s="2">
@@ -11165,16 +11170,16 @@
         <v>16</v>
       </c>
       <c r="F131" s="14" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="G131" s="14" t="s">
         <v>151</v>
       </c>
       <c r="H131" s="14" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="I131" s="14" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="K131" s="2"/>
       <c r="L131" s="2"/>
@@ -11230,16 +11235,16 @@
         <v>18</v>
       </c>
       <c r="F132" s="14" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="G132" s="14" t="s">
         <v>151</v>
       </c>
       <c r="H132" s="14" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="I132" s="14" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="K132" s="2"/>
       <c r="L132" s="2">
@@ -11299,16 +11304,16 @@
         <v>25</v>
       </c>
       <c r="F133" s="14" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="G133" s="14" t="s">
         <v>151</v>
       </c>
       <c r="H133" s="14" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="I133" s="14" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="K133" s="2"/>
       <c r="L133" s="2"/>
@@ -11411,16 +11416,16 @@
         <v>28</v>
       </c>
       <c r="F135" s="14" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="G135" s="14" t="s">
         <v>151</v>
       </c>
       <c r="H135" s="14" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="I135" s="14" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="K135" s="2"/>
       <c r="L135" s="2">
@@ -11459,10 +11464,10 @@
       <c r="AW135" s="5"/>
       <c r="AX135" s="5"/>
       <c r="AY135" s="11" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="AZ135" s="11" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="BB135" s="21"/>
       <c r="BC135" s="21"/>
@@ -11484,16 +11489,16 @@
         <v>44</v>
       </c>
       <c r="F136" s="14" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="G136" s="14" t="s">
         <v>151</v>
       </c>
       <c r="H136" s="14" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="I136" s="14" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="K136" s="2"/>
       <c r="L136" s="2"/>
@@ -11531,10 +11536,10 @@
       <c r="AP136" s="9"/>
       <c r="AV136" s="7"/>
       <c r="AW136" s="5" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="AX136" s="5" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="AY136" s="11"/>
       <c r="AZ136" s="11"/>
@@ -11558,16 +11563,16 @@
         <v>33</v>
       </c>
       <c r="F137" s="14" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="G137" s="14" t="s">
         <v>151</v>
       </c>
       <c r="H137" s="14" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="I137" s="14" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="K137" s="2"/>
       <c r="L137" s="2"/>
@@ -11628,16 +11633,16 @@
         <v>45</v>
       </c>
       <c r="F138" s="14" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="G138" s="14" t="s">
         <v>151</v>
       </c>
       <c r="H138" s="14" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="I138" s="14" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="K138" s="2"/>
       <c r="L138" s="2">
@@ -11697,19 +11702,19 @@
         <v>40</v>
       </c>
       <c r="F139" s="14" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="G139" s="14" t="s">
         <v>151</v>
       </c>
       <c r="H139" s="14" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="I139" s="14" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="J139" s="14" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="K139" s="2"/>
       <c r="L139" s="2"/>
@@ -11748,10 +11753,10 @@
       <c r="AP139" s="9"/>
       <c r="AV139" s="7"/>
       <c r="AW139" s="5" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="AX139" s="5" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="AY139" s="11"/>
       <c r="AZ139" s="11"/>
@@ -11775,16 +11780,16 @@
         <v>12</v>
       </c>
       <c r="F140" s="14" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="G140" s="14" t="s">
+        <v>262</v>
+      </c>
+      <c r="H140" s="14" t="s">
         <v>264</v>
       </c>
-      <c r="H140" s="14" t="s">
-        <v>266</v>
-      </c>
       <c r="I140" s="14" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="K140" s="2"/>
       <c r="L140" s="2">
@@ -11847,16 +11852,16 @@
         <v>20</v>
       </c>
       <c r="F141" s="1" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="G141" s="1" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="H141" s="1" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="I141" s="1" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="L141" s="2">
         <v>1</v>
@@ -11885,19 +11890,19 @@
         <v>26</v>
       </c>
       <c r="F142" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="G142" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="H142" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="I142" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="J142" s="1" t="s">
         <v>259</v>
-      </c>
-      <c r="G142" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="H142" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="I142" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="J142" s="1" t="s">
-        <v>261</v>
       </c>
       <c r="L142" s="2">
         <v>1</v>
@@ -11923,16 +11928,16 @@
         <v>58</v>
       </c>
       <c r="F143" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="G143" s="1" t="s">
         <v>262</v>
       </c>
-      <c r="G143" s="1" t="s">
-        <v>264</v>
-      </c>
       <c r="H143" s="1" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="I143" s="1" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="L143" s="2">
         <v>1</v>
@@ -11958,16 +11963,16 @@
         <v>11</v>
       </c>
       <c r="F144" s="1" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="G144" s="1" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="H144" s="1" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="I144" s="1" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="N144" s="2">
         <v>1</v>
@@ -11990,19 +11995,16 @@
         <v>34</v>
       </c>
       <c r="F145" s="1" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="G145" s="1" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="H145" s="1" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="I145" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="N145" s="2">
-        <v>1</v>
+        <v>254</v>
       </c>
       <c r="O145" s="2">
         <v>1</v>
@@ -12028,19 +12030,19 @@
         <v>45</v>
       </c>
       <c r="F146" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="G146" s="1" t="s">
         <v>262</v>
       </c>
-      <c r="G146" s="1" t="s">
-        <v>264</v>
-      </c>
       <c r="H146" s="1" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="I146" s="1" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="J146" s="1" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="L146" s="2">
         <v>1</v>
@@ -12069,16 +12071,16 @@
         <v>16</v>
       </c>
       <c r="F147" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="G147" s="1" t="s">
         <v>262</v>
       </c>
-      <c r="G147" s="1" t="s">
-        <v>264</v>
-      </c>
       <c r="H147" s="1" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="I147" s="1" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="L147" s="2">
         <v>1</v>
@@ -12093,10 +12095,10 @@
         <v>1</v>
       </c>
       <c r="AY147" s="11" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="AZ147" s="11" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="148" spans="1:52" x14ac:dyDescent="0.35">
@@ -12121,16 +12123,16 @@
         <v>25</v>
       </c>
       <c r="F149" s="1" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="G149" s="1" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="H149" s="1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="I149" s="1" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="L149" s="2">
         <v>1</v>
@@ -12162,16 +12164,16 @@
         <v>21</v>
       </c>
       <c r="F150" s="1" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="G150" s="1" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="H150" s="1" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="I150" s="1" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="U150" s="2">
         <v>1</v>
@@ -12194,16 +12196,16 @@
         <v>29</v>
       </c>
       <c r="F151" s="1" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="G151" s="1" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="H151" s="1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="I151" s="1" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="L151" s="2">
         <v>0</v>
@@ -12235,16 +12237,16 @@
         <v>33</v>
       </c>
       <c r="F152" s="1" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="G152" s="1" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="H152" s="1" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="I152" s="1" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="U152" s="2">
         <v>1</v>
@@ -12267,16 +12269,16 @@
         <v>36</v>
       </c>
       <c r="F153" s="1" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="G153" s="1" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="H153" s="1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="I153" s="1" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="L153" s="2">
         <v>0</v>
@@ -12308,16 +12310,16 @@
         <v>42</v>
       </c>
       <c r="F154" s="1" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="G154" s="1" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="H154" s="1" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="I154" s="1" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="U154" s="2">
         <v>1</v>
@@ -12340,16 +12342,16 @@
         <v>46</v>
       </c>
       <c r="F155" s="1" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="G155" s="1" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="H155" s="1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="I155" s="1" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="L155" s="2">
         <v>1</v>
@@ -12381,19 +12383,19 @@
         <v>3</v>
       </c>
       <c r="F156" s="1" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="G156" s="1" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="H156" s="1" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="I156" s="1" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="J156" s="1" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="L156" s="2">
         <v>1</v>
@@ -12425,16 +12427,16 @@
         <v>40</v>
       </c>
       <c r="F157" s="1" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="G157" s="1" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="H157" s="1" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="I157" s="1" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="L157" s="2">
         <v>1</v>
@@ -12472,16 +12474,16 @@
         <v>49</v>
       </c>
       <c r="F158" s="1" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="G158" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="H158" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="H158" s="1" t="s">
-        <v>266</v>
-      </c>
       <c r="I158" s="1" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="L158" s="2">
         <v>1</v>
@@ -12511,7 +12513,7 @@
         <v>1</v>
       </c>
       <c r="AW158" s="5" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="AX158" s="5" t="s">
         <v>148</v>
@@ -12534,34 +12536,34 @@
         <v>49</v>
       </c>
       <c r="F159" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="G159" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="H159" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="I159" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="J159" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="AI159" s="1">
+        <v>1</v>
+      </c>
+      <c r="AJ159" s="13">
+        <v>1</v>
+      </c>
+      <c r="AK159" s="13">
+        <v>1</v>
+      </c>
+      <c r="AL159" s="1">
+        <v>1</v>
+      </c>
+      <c r="AW159" s="5" t="s">
         <v>275</v>
-      </c>
-      <c r="G159" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="H159" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="I159" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="J159" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="AI159" s="1">
-        <v>1</v>
-      </c>
-      <c r="AJ159" s="13">
-        <v>1</v>
-      </c>
-      <c r="AK159" s="13">
-        <v>1</v>
-      </c>
-      <c r="AL159" s="1">
-        <v>1</v>
-      </c>
-      <c r="AW159" s="5" t="s">
-        <v>277</v>
       </c>
       <c r="AX159" s="5" t="s">
         <v>148</v>
@@ -12581,19 +12583,19 @@
         <v>37</v>
       </c>
       <c r="F160" s="1" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="G160" s="1" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="H160" s="1" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="I160" s="1" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="J160" s="1" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="L160" s="2">
         <v>1</v>
@@ -12637,7 +12639,7 @@
         <v>18</v>
       </c>
       <c r="F162" s="1" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="H162" s="14"/>
     </row>
@@ -12655,7 +12657,7 @@
         <v>6</v>
       </c>
       <c r="F163" s="1" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="G163" s="1" t="s">
         <v>151</v>
@@ -12664,7 +12666,7 @@
         <v>169</v>
       </c>
       <c r="I163" s="1" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="L163" s="2">
         <v>1</v>
@@ -12708,7 +12710,7 @@
         <v>39</v>
       </c>
       <c r="F165" s="1" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="G165" s="1" t="s">
         <v>151</v>
@@ -12717,7 +12719,7 @@
         <v>169</v>
       </c>
       <c r="I165" s="1" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="L165" s="2">
         <v>1</v>

--- a/data/SceneDetail.xlsx
+++ b/data/SceneDetail.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ryant\Documents\808Projects\OneOffs\JurassicPark\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ryant\Documents\809projects\JurassicPark\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D276BFAE-69E5-4C11-9EB4-C9389A80FF19}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{185F55C1-D9C3-45F8-BDCA-5BBFCA5E4774}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="10050" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SceneDetail" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,10 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -483,9 +486,6 @@
     <t>Notable</t>
   </si>
   <si>
-    <t>Jophrey Brown's death</t>
-  </si>
-  <si>
     <t>Isla Nublar</t>
   </si>
   <si>
@@ -561,9 +561,6 @@
     <t>Life finds a way</t>
   </si>
   <si>
-    <t>Jophrey</t>
-  </si>
-  <si>
     <t>Cow</t>
   </si>
   <si>
@@ -1027,6 +1024,12 @@
   </si>
   <si>
     <t>Brachiosaurus tree</t>
+  </si>
+  <si>
+    <t>Jophery Brown's death</t>
+  </si>
+  <si>
+    <t>Jophery</t>
   </si>
 </sst>
 </file>
@@ -1973,76 +1976,76 @@
   <dimension ref="A1:BE166"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="F129" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="AQ2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="N145" sqref="N145"/>
+      <selection pane="bottomRight" activeCell="BA17" sqref="BA17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.73046875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="32" style="1" customWidth="1"/>
     <col min="2" max="2" width="4" style="7" customWidth="1"/>
-    <col min="3" max="3" width="3.90625" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="4.453125" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="3.6328125" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="26.36328125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="3.9296875" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="4.46484375" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="3.59765625" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26.33203125" style="1" customWidth="1"/>
     <col min="7" max="7" width="26" style="1" customWidth="1"/>
-    <col min="8" max="8" width="22.6328125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="10.36328125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="11.26953125" style="1" customWidth="1"/>
-    <col min="11" max="11" width="6.7265625" style="2" customWidth="1"/>
-    <col min="12" max="12" width="2.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="2.90625" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="4.81640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="3.7265625" style="2" customWidth="1"/>
-    <col min="16" max="16" width="7.90625" style="2" customWidth="1"/>
-    <col min="17" max="17" width="2.6328125" style="2" customWidth="1"/>
-    <col min="18" max="18" width="3.54296875" style="2" customWidth="1"/>
-    <col min="19" max="19" width="6.81640625" style="2" customWidth="1"/>
-    <col min="20" max="20" width="6.90625" style="2" customWidth="1"/>
-    <col min="21" max="21" width="6.90625" style="2" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="6.26953125" style="2" customWidth="1"/>
-    <col min="23" max="23" width="7.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="7.1796875" style="2" customWidth="1"/>
-    <col min="26" max="26" width="7.453125" style="2" customWidth="1"/>
+    <col min="8" max="8" width="22.59765625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="10.33203125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="11.265625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="6.73046875" style="2" customWidth="1"/>
+    <col min="12" max="12" width="2.73046875" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="2.9296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="4.796875" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="3.73046875" style="2" customWidth="1"/>
+    <col min="16" max="16" width="7.9296875" style="2" customWidth="1"/>
+    <col min="17" max="17" width="2.59765625" style="2" customWidth="1"/>
+    <col min="18" max="18" width="3.53125" style="2" customWidth="1"/>
+    <col min="19" max="19" width="6.796875" style="2" customWidth="1"/>
+    <col min="20" max="20" width="6.9296875" style="2" customWidth="1"/>
+    <col min="21" max="21" width="6.9296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="6.265625" style="2" customWidth="1"/>
+    <col min="23" max="23" width="7.53125" style="2" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="7.19921875" style="2" customWidth="1"/>
+    <col min="26" max="26" width="7.46484375" style="2" customWidth="1"/>
     <col min="27" max="27" width="6" style="2" customWidth="1"/>
-    <col min="28" max="28" width="5.7265625" style="2" customWidth="1"/>
-    <col min="29" max="29" width="4.7265625" style="2" customWidth="1"/>
+    <col min="28" max="28" width="5.73046875" style="2" customWidth="1"/>
+    <col min="29" max="29" width="4.73046875" style="2" customWidth="1"/>
     <col min="30" max="30" width="6" style="2" customWidth="1"/>
-    <col min="31" max="31" width="2.81640625" style="2" customWidth="1"/>
-    <col min="32" max="32" width="4.36328125" style="2" customWidth="1"/>
-    <col min="33" max="33" width="4.08984375" style="2" customWidth="1"/>
-    <col min="34" max="34" width="11.1796875" style="2" customWidth="1"/>
-    <col min="35" max="35" width="8.7265625" style="1"/>
-    <col min="36" max="37" width="8.7265625" style="13"/>
-    <col min="38" max="40" width="8.7265625" style="1"/>
-    <col min="41" max="41" width="8.7265625" style="1" customWidth="1"/>
-    <col min="42" max="42" width="8.7265625" style="9" customWidth="1"/>
-    <col min="43" max="47" width="8.7265625" style="1" customWidth="1"/>
-    <col min="48" max="48" width="8.7265625" style="7"/>
-    <col min="49" max="50" width="8.7265625" style="5"/>
-    <col min="51" max="52" width="8.7265625" style="11"/>
-    <col min="53" max="53" width="8.7265625" style="1"/>
-    <col min="54" max="57" width="11.1796875" style="21" customWidth="1"/>
-    <col min="58" max="16384" width="8.7265625" style="1"/>
+    <col min="31" max="31" width="2.796875" style="2" customWidth="1"/>
+    <col min="32" max="32" width="4.33203125" style="2" customWidth="1"/>
+    <col min="33" max="33" width="4.06640625" style="2" customWidth="1"/>
+    <col min="34" max="34" width="11.19921875" style="2" customWidth="1"/>
+    <col min="35" max="35" width="8.73046875" style="1"/>
+    <col min="36" max="37" width="8.73046875" style="13"/>
+    <col min="38" max="40" width="8.73046875" style="1"/>
+    <col min="41" max="41" width="8.73046875" style="1" customWidth="1"/>
+    <col min="42" max="42" width="8.73046875" style="9" customWidth="1"/>
+    <col min="43" max="47" width="8.73046875" style="1" customWidth="1"/>
+    <col min="48" max="48" width="8.73046875" style="7"/>
+    <col min="49" max="50" width="8.73046875" style="5"/>
+    <col min="51" max="52" width="8.73046875" style="11"/>
+    <col min="53" max="53" width="8.73046875" style="1"/>
+    <col min="54" max="57" width="11.19921875" style="21" customWidth="1"/>
+    <col min="58" max="16384" width="8.73046875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:57" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:57" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>143</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C1" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>172</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="E1" s="4" t="s">
         <v>173</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>174</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>144</v>
@@ -2051,157 +2054,157 @@
         <v>145</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>149</v>
       </c>
       <c r="K1" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="M1" s="3" t="s">
         <v>282</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="N1" s="3" t="s">
         <v>283</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="O1" s="3" t="s">
         <v>284</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="P1" s="3" t="s">
         <v>285</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="Q1" s="3" t="s">
         <v>286</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="R1" s="3" t="s">
         <v>287</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="S1" s="3" t="s">
         <v>288</v>
       </c>
-      <c r="R1" s="3" t="s">
+      <c r="T1" s="3" t="s">
         <v>289</v>
       </c>
-      <c r="S1" s="3" t="s">
+      <c r="U1" s="3" t="s">
         <v>290</v>
       </c>
-      <c r="T1" s="3" t="s">
+      <c r="V1" s="3" t="s">
         <v>291</v>
       </c>
-      <c r="U1" s="3" t="s">
+      <c r="W1" s="3" t="s">
         <v>292</v>
       </c>
-      <c r="V1" s="3" t="s">
+      <c r="X1" s="3" t="s">
         <v>293</v>
       </c>
-      <c r="W1" s="3" t="s">
+      <c r="Y1" s="3" t="s">
         <v>294</v>
       </c>
-      <c r="X1" s="3" t="s">
+      <c r="Z1" s="3" t="s">
         <v>295</v>
       </c>
-      <c r="Y1" s="3" t="s">
+      <c r="AA1" s="3" t="s">
         <v>296</v>
       </c>
-      <c r="Z1" s="3" t="s">
+      <c r="AB1" s="3" t="s">
         <v>297</v>
       </c>
-      <c r="AA1" s="3" t="s">
+      <c r="AC1" s="3" t="s">
         <v>298</v>
       </c>
-      <c r="AB1" s="3" t="s">
+      <c r="AD1" s="3" t="s">
         <v>299</v>
       </c>
-      <c r="AC1" s="3" t="s">
+      <c r="AE1" s="3" t="s">
         <v>300</v>
       </c>
-      <c r="AD1" s="3" t="s">
+      <c r="AF1" s="3" t="s">
         <v>301</v>
       </c>
-      <c r="AE1" s="3" t="s">
+      <c r="AG1" s="3" t="s">
         <v>302</v>
       </c>
-      <c r="AF1" s="3" t="s">
+      <c r="AH1" s="3" t="s">
         <v>303</v>
       </c>
-      <c r="AG1" s="3" t="s">
+      <c r="AI1" s="1" t="s">
         <v>304</v>
       </c>
-      <c r="AH1" s="3" t="s">
+      <c r="AJ1" s="13" t="s">
         <v>305</v>
       </c>
-      <c r="AI1" s="1" t="s">
+      <c r="AK1" s="13" t="s">
         <v>306</v>
       </c>
-      <c r="AJ1" s="13" t="s">
+      <c r="AL1" s="1" t="s">
         <v>307</v>
       </c>
-      <c r="AK1" s="13" t="s">
+      <c r="AM1" s="1" t="s">
         <v>308</v>
       </c>
-      <c r="AL1" s="1" t="s">
+      <c r="AN1" s="1" t="s">
         <v>309</v>
       </c>
-      <c r="AM1" s="1" t="s">
+      <c r="AO1" s="1" t="s">
         <v>310</v>
       </c>
-      <c r="AN1" s="1" t="s">
+      <c r="AP1" s="9" t="s">
         <v>311</v>
       </c>
-      <c r="AO1" s="1" t="s">
+      <c r="AQ1" s="1" t="s">
         <v>312</v>
       </c>
-      <c r="AP1" s="9" t="s">
+      <c r="AR1" s="1" t="s">
         <v>313</v>
       </c>
-      <c r="AQ1" s="1" t="s">
+      <c r="AS1" s="1" t="s">
         <v>314</v>
       </c>
-      <c r="AR1" s="1" t="s">
+      <c r="AT1" s="1" t="s">
         <v>315</v>
       </c>
-      <c r="AS1" s="1" t="s">
+      <c r="AU1" s="1" t="s">
         <v>316</v>
       </c>
-      <c r="AT1" s="1" t="s">
+      <c r="AV1" s="7" t="s">
         <v>317</v>
       </c>
-      <c r="AU1" s="1" t="s">
+      <c r="AW1" s="5" t="s">
+        <v>322</v>
+      </c>
+      <c r="AX1" s="5" t="s">
+        <v>323</v>
+      </c>
+      <c r="AY1" s="11" t="s">
+        <v>324</v>
+      </c>
+      <c r="AZ1" s="11" t="s">
+        <v>325</v>
+      </c>
+      <c r="BA1" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="BB1" s="20" t="s">
         <v>318</v>
       </c>
-      <c r="AV1" s="7" t="s">
+      <c r="BC1" s="20" t="s">
         <v>319</v>
       </c>
-      <c r="AW1" s="5" t="s">
-        <v>324</v>
-      </c>
-      <c r="AX1" s="5" t="s">
-        <v>325</v>
-      </c>
-      <c r="AY1" s="11" t="s">
-        <v>326</v>
-      </c>
-      <c r="AZ1" s="11" t="s">
-        <v>327</v>
-      </c>
-      <c r="BA1" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="BB1" s="20" t="s">
+      <c r="BD1" s="20" t="s">
         <v>320</v>
       </c>
-      <c r="BC1" s="20" t="s">
+      <c r="BE1" s="20" t="s">
         <v>321</v>
       </c>
-      <c r="BD1" s="20" t="s">
-        <v>322</v>
-      </c>
-      <c r="BE1" s="20" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="2" spans="1:57" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="2" spans="1:57" s="15" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A2" s="15" t="s">
         <v>0</v>
       </c>
@@ -2216,19 +2219,19 @@
         <v>0</v>
       </c>
       <c r="F2" s="15" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="G2" s="15" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H2" s="15" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="I2" s="15" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="J2" s="15" t="s">
-        <v>150</v>
+        <v>330</v>
       </c>
       <c r="K2" s="2"/>
       <c r="L2" s="2"/>
@@ -2268,10 +2271,10 @@
       <c r="AP2" s="10"/>
       <c r="AV2" s="8"/>
       <c r="AW2" s="6" t="s">
-        <v>176</v>
+        <v>331</v>
       </c>
       <c r="AX2" s="6" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="AY2" s="12"/>
       <c r="AZ2" s="12"/>
@@ -2282,7 +2285,7 @@
       <c r="BD2" s="21"/>
       <c r="BE2" s="21"/>
     </row>
-    <row r="3" spans="1:57" s="14" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:57" s="14" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A3" s="14" t="s">
         <v>1</v>
       </c>
@@ -2297,16 +2300,16 @@
         <v>33</v>
       </c>
       <c r="F3" s="14" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G3" s="14" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H3" s="14" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="I3" s="14" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="K3" s="2">
         <v>1</v>
@@ -2353,7 +2356,7 @@
       <c r="BD3" s="21"/>
       <c r="BE3" s="21"/>
     </row>
-    <row r="4" spans="1:57" s="14" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:57" s="14" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A4" s="14" t="s">
         <v>2</v>
       </c>
@@ -2368,19 +2371,19 @@
         <v>41</v>
       </c>
       <c r="F4" s="14" t="s">
+        <v>152</v>
+      </c>
+      <c r="G4" s="14" t="s">
+        <v>151</v>
+      </c>
+      <c r="H4" s="14" t="s">
+        <v>164</v>
+      </c>
+      <c r="I4" s="14" t="s">
+        <v>196</v>
+      </c>
+      <c r="J4" s="14" t="s">
         <v>153</v>
-      </c>
-      <c r="G4" s="14" t="s">
-        <v>152</v>
-      </c>
-      <c r="H4" s="14" t="s">
-        <v>165</v>
-      </c>
-      <c r="I4" s="14" t="s">
-        <v>198</v>
-      </c>
-      <c r="J4" s="14" t="s">
-        <v>154</v>
       </c>
       <c r="K4" s="2">
         <v>1</v>
@@ -2427,7 +2430,7 @@
       <c r="BD4" s="21"/>
       <c r="BE4" s="21"/>
     </row>
-    <row r="5" spans="1:57" s="14" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:57" s="14" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A5" s="14" t="s">
         <v>3</v>
       </c>
@@ -2442,19 +2445,19 @@
         <v>20</v>
       </c>
       <c r="F5" s="14" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G5" s="14" t="s">
+        <v>154</v>
+      </c>
+      <c r="H5" s="14" t="s">
+        <v>165</v>
+      </c>
+      <c r="I5" s="14" t="s">
+        <v>196</v>
+      </c>
+      <c r="J5" s="14" t="s">
         <v>155</v>
-      </c>
-      <c r="H5" s="14" t="s">
-        <v>166</v>
-      </c>
-      <c r="I5" s="14" t="s">
-        <v>198</v>
-      </c>
-      <c r="J5" s="14" t="s">
-        <v>156</v>
       </c>
       <c r="K5" s="2"/>
       <c r="L5" s="2"/>
@@ -2507,7 +2510,7 @@
       <c r="BD5" s="21"/>
       <c r="BE5" s="21"/>
     </row>
-    <row r="6" spans="1:57" s="14" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:57" s="14" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A6" s="14" t="s">
         <v>4</v>
       </c>
@@ -2522,16 +2525,16 @@
         <v>24</v>
       </c>
       <c r="F6" s="14" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G6" s="14" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H6" s="14" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="I6" s="14" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="K6" s="2"/>
       <c r="L6" s="2"/>
@@ -2576,7 +2579,7 @@
       <c r="BD6" s="21"/>
       <c r="BE6" s="21"/>
     </row>
-    <row r="7" spans="1:57" s="14" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:57" s="14" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A7" s="14" t="s">
         <v>5</v>
       </c>
@@ -2591,19 +2594,19 @@
         <v>16</v>
       </c>
       <c r="F7" s="14" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="G7" s="14" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H7" s="14" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="I7" s="14" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="J7" s="14" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="K7" s="2"/>
       <c r="L7" s="2"/>
@@ -2650,7 +2653,7 @@
       <c r="BD7" s="21"/>
       <c r="BE7" s="21"/>
     </row>
-    <row r="8" spans="1:57" s="14" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:57" s="14" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A8" s="14" t="s">
         <v>6</v>
       </c>
@@ -2665,20 +2668,20 @@
         <v>14</v>
       </c>
       <c r="F8" s="14" t="s">
+        <v>158</v>
+      </c>
+      <c r="G8" s="14" t="s">
         <v>159</v>
-      </c>
-      <c r="G8" s="14" t="s">
-        <v>160</v>
       </c>
       <c r="H8" s="14" t="str">
         <f>"Cafe"</f>
         <v>Cafe</v>
       </c>
       <c r="I8" s="14" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="J8" s="14" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="K8" s="2"/>
       <c r="L8" s="2"/>
@@ -2723,7 +2726,7 @@
       </c>
       <c r="BE8" s="21"/>
     </row>
-    <row r="9" spans="1:57" s="14" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:57" s="14" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A9" s="14" t="s">
         <v>7</v>
       </c>
@@ -2738,16 +2741,16 @@
         <v>18</v>
       </c>
       <c r="F9" s="14" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="G9" s="14" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="H9" s="14" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="I9" s="14" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="K9" s="2"/>
       <c r="L9" s="2"/>
@@ -2786,7 +2789,7 @@
       <c r="BD9" s="21"/>
       <c r="BE9" s="21"/>
     </row>
-    <row r="10" spans="1:57" s="14" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:57" s="14" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A10" s="14" t="s">
         <v>8</v>
       </c>
@@ -2801,16 +2804,16 @@
         <v>28</v>
       </c>
       <c r="F10" s="14" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="G10" s="14" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="H10" s="14" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="I10" s="14" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="K10" s="2">
         <v>1</v>
@@ -2859,7 +2862,7 @@
       <c r="BD10" s="21"/>
       <c r="BE10" s="21"/>
     </row>
-    <row r="11" spans="1:57" s="14" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:57" s="14" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A11" s="14" t="s">
         <v>9</v>
       </c>
@@ -2874,16 +2877,16 @@
         <v>11</v>
       </c>
       <c r="F11" s="18" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="G11" s="14" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H11" s="14" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="I11" s="14" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="K11" s="2">
         <v>1</v>
@@ -2938,7 +2941,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:57" s="14" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:57" s="14" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A12" s="14" t="s">
         <v>10</v>
       </c>
@@ -2953,19 +2956,19 @@
         <v>27</v>
       </c>
       <c r="F12" s="18" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="G12" s="14" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H12" s="14" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="I12" s="14" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="J12" s="14" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="K12" s="2">
         <v>1</v>
@@ -3022,7 +3025,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:57" s="14" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:57" s="14" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A13" s="14" t="s">
         <v>11</v>
       </c>
@@ -3069,7 +3072,7 @@
       <c r="BD13" s="21"/>
       <c r="BE13" s="21"/>
     </row>
-    <row r="14" spans="1:57" s="14" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:57" s="14" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A14" s="14" t="s">
         <v>12</v>
       </c>
@@ -3084,16 +3087,16 @@
         <v>50</v>
       </c>
       <c r="F14" s="18" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="G14" s="14" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="H14" s="14" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="I14" s="14" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="K14" s="2">
         <v>1</v>
@@ -3146,7 +3149,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:57" s="14" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:57" s="14" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A15" s="14" t="s">
         <v>13</v>
       </c>
@@ -3161,16 +3164,16 @@
         <v>6</v>
       </c>
       <c r="F15" s="18" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="G15" s="14" t="s">
+        <v>260</v>
+      </c>
+      <c r="H15" s="14" t="s">
         <v>262</v>
       </c>
-      <c r="H15" s="14" t="s">
-        <v>264</v>
-      </c>
       <c r="I15" s="14" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="K15" s="2">
         <v>1</v>
@@ -3227,7 +3230,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:57" s="14" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:57" s="14" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A16" s="14" t="s">
         <v>14</v>
       </c>
@@ -3242,16 +3245,16 @@
         <v>48</v>
       </c>
       <c r="F16" s="14" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="G16" s="14" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="H16" s="14" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="I16" s="14" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="K16" s="2">
         <v>1</v>
@@ -3302,7 +3305,7 @@
       <c r="BD16" s="21"/>
       <c r="BE16" s="21"/>
     </row>
-    <row r="17" spans="1:57" s="14" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:57" s="14" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A17" s="14" t="s">
         <v>15</v>
       </c>
@@ -3317,16 +3320,16 @@
         <v>45</v>
       </c>
       <c r="F17" s="14" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="G17" s="14" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="H17" s="14" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="I17" s="14" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="K17" s="2">
         <v>1</v>
@@ -3377,7 +3380,7 @@
       <c r="BD17" s="21"/>
       <c r="BE17" s="21"/>
     </row>
-    <row r="18" spans="1:57" s="14" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:57" s="14" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A18" s="14" t="s">
         <v>16</v>
       </c>
@@ -3424,7 +3427,7 @@
       <c r="BD18" s="21"/>
       <c r="BE18" s="21"/>
     </row>
-    <row r="19" spans="1:57" s="14" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:57" s="14" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A19" s="14" t="s">
         <v>17</v>
       </c>
@@ -3439,16 +3442,16 @@
         <v>2</v>
       </c>
       <c r="F19" s="14" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="G19" s="14" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="H19" s="14" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="I19" s="14" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="K19" s="2">
         <v>1</v>
@@ -3499,7 +3502,7 @@
       <c r="BD19" s="21"/>
       <c r="BE19" s="21"/>
     </row>
-    <row r="20" spans="1:57" s="14" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:57" s="14" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A20" s="14" t="s">
         <v>18</v>
       </c>
@@ -3514,16 +3517,16 @@
         <v>46</v>
       </c>
       <c r="F20" s="14" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="G20" s="14" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="H20" s="14" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="I20" s="14" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="K20" s="2"/>
       <c r="L20" s="2"/>
@@ -3566,7 +3569,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:57" s="14" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:57" s="14" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A21" s="14" t="s">
         <v>19</v>
       </c>
@@ -3581,16 +3584,16 @@
         <v>0</v>
       </c>
       <c r="F21" s="14" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="G21" s="14" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="H21" s="14" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="I21" s="14" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="K21" s="2">
         <v>1</v>
@@ -3641,7 +3644,7 @@
       <c r="BD21" s="21"/>
       <c r="BE21" s="21"/>
     </row>
-    <row r="22" spans="1:57" s="14" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:57" s="14" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A22" s="14" t="s">
         <v>20</v>
       </c>
@@ -3656,16 +3659,16 @@
         <v>31</v>
       </c>
       <c r="F22" s="14" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="G22" s="14" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="H22" s="14" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="I22" s="14" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="K22" s="2"/>
       <c r="L22" s="2"/>
@@ -3708,7 +3711,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="1:57" s="14" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:57" s="14" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A23" s="14" t="s">
         <v>21</v>
       </c>
@@ -3723,16 +3726,16 @@
         <v>36</v>
       </c>
       <c r="F23" s="14" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="G23" s="14" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="H23" s="14" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="I23" s="14" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="K23" s="2"/>
       <c r="L23" s="2"/>
@@ -3775,7 +3778,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:57" s="14" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:57" s="14" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A24" s="14" t="s">
         <v>22</v>
       </c>
@@ -3790,16 +3793,16 @@
         <v>58</v>
       </c>
       <c r="F24" s="14" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="G24" s="14" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="H24" s="14" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="I24" s="14" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="K24" s="2">
         <v>1</v>
@@ -3848,7 +3851,7 @@
       <c r="BD24" s="21"/>
       <c r="BE24" s="21"/>
     </row>
-    <row r="25" spans="1:57" s="14" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:57" s="14" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A25" s="14" t="s">
         <v>23</v>
       </c>
@@ -3863,16 +3866,16 @@
         <v>10</v>
       </c>
       <c r="F25" s="14" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="G25" s="14" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="H25" s="14" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="I25" s="14" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="K25" s="2">
         <v>1</v>
@@ -3927,7 +3930,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="26" spans="1:57" s="14" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:57" s="14" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A26" s="14" t="s">
         <v>24</v>
       </c>
@@ -3942,19 +3945,19 @@
         <v>0</v>
       </c>
       <c r="F26" s="14" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="G26" s="14" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="H26" s="14" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="I26" s="14" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="J26" s="14" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="K26" s="2">
         <v>1</v>
@@ -4012,7 +4015,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="27" spans="1:57" s="14" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:57" s="14" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A27" s="14" t="s">
         <v>25</v>
       </c>
@@ -4027,16 +4030,16 @@
         <v>41</v>
       </c>
       <c r="F27" s="14" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="G27" s="14" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H27" s="14" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="I27" s="14" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="K27" s="2">
         <v>1</v>
@@ -4088,15 +4091,15 @@
       <c r="AP27" s="9"/>
       <c r="AV27" s="7"/>
       <c r="AW27" s="5" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="AX27" s="6" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="AY27" s="11"/>
       <c r="AZ27" s="11"/>
       <c r="BA27" s="14" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="BB27" s="21"/>
       <c r="BC27" s="21"/>
@@ -4105,7 +4108,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="28" spans="1:57" s="14" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:57" s="14" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A28" s="14" t="s">
         <v>26</v>
       </c>
@@ -4120,19 +4123,19 @@
         <v>13</v>
       </c>
       <c r="F28" s="14" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="G28" s="14" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="H28" s="14" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="I28" s="14" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="J28" s="14" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="K28" s="2">
         <v>1</v>
@@ -4183,7 +4186,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:57" s="14" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:57" s="14" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A29" s="14" t="s">
         <v>27</v>
       </c>
@@ -4198,16 +4201,16 @@
         <v>9</v>
       </c>
       <c r="F29" s="14" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="G29" s="14" t="s">
+        <v>260</v>
+      </c>
+      <c r="H29" s="14" t="s">
         <v>262</v>
       </c>
-      <c r="H29" s="14" t="s">
-        <v>264</v>
-      </c>
       <c r="I29" s="14" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="K29" s="2">
         <v>1</v>
@@ -4260,7 +4263,7 @@
       <c r="AY29" s="11"/>
       <c r="AZ29" s="11"/>
       <c r="BA29" s="14" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="BB29" s="21"/>
       <c r="BC29" s="21"/>
@@ -4269,7 +4272,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="30" spans="1:57" s="14" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:57" s="14" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A30" s="14" t="s">
         <v>28</v>
       </c>
@@ -4284,16 +4287,16 @@
         <v>28</v>
       </c>
       <c r="F30" s="14" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="G30" s="14" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="H30" s="14" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="I30" s="14" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="K30" s="2"/>
       <c r="L30" s="2"/>
@@ -4342,7 +4345,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:57" s="14" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:57" s="14" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A31" s="14" t="s">
         <v>29</v>
       </c>
@@ -4357,16 +4360,16 @@
         <v>13</v>
       </c>
       <c r="F31" s="14" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="G31" s="14" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="H31" s="14" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="I31" s="14" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="K31" s="2">
         <v>1</v>
@@ -4419,7 +4422,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:57" s="14" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:57" s="14" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A32" s="14" t="s">
         <v>30</v>
       </c>
@@ -4434,16 +4437,16 @@
         <v>26</v>
       </c>
       <c r="F32" s="14" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="G32" s="14" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H32" s="14" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="I32" s="14" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="K32" s="2">
         <v>1</v>
@@ -4490,14 +4493,14 @@
       <c r="AY32" s="11"/>
       <c r="AZ32" s="11"/>
       <c r="BA32" s="14" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="BB32" s="21"/>
       <c r="BC32" s="21"/>
       <c r="BD32" s="21"/>
       <c r="BE32" s="21"/>
     </row>
-    <row r="33" spans="1:57" s="14" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:57" s="14" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A33" s="14" t="s">
         <v>31</v>
       </c>
@@ -4512,19 +4515,19 @@
         <v>26</v>
       </c>
       <c r="F33" s="14" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="G33" s="14" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H33" s="14" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="I33" s="14" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="J33" s="14" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="K33" s="2">
         <v>1</v>
@@ -4571,14 +4574,14 @@
       <c r="AY33" s="11"/>
       <c r="AZ33" s="11"/>
       <c r="BA33" s="14" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="BB33" s="21"/>
       <c r="BC33" s="21"/>
       <c r="BD33" s="21"/>
       <c r="BE33" s="21"/>
     </row>
-    <row r="34" spans="1:57" s="14" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:57" s="14" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A34" s="14" t="s">
         <v>32</v>
       </c>
@@ -4593,16 +4596,16 @@
         <v>54</v>
       </c>
       <c r="F34" s="14" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="G34" s="14" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="H34" s="14" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="I34" s="14" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="K34" s="2"/>
       <c r="L34" s="2"/>
@@ -4651,7 +4654,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="35" spans="1:57" s="14" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:57" s="14" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A35" s="14" t="s">
         <v>33</v>
       </c>
@@ -4666,19 +4669,19 @@
         <v>13</v>
       </c>
       <c r="F35" s="14" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="G35" s="14" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H35" s="14" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="I35" s="14" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="J35" s="14" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="K35" s="2">
         <v>1</v>
@@ -4729,7 +4732,7 @@
       <c r="BD35" s="21"/>
       <c r="BE35" s="21"/>
     </row>
-    <row r="36" spans="1:57" s="14" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:57" s="14" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A36" s="14" t="s">
         <v>34</v>
       </c>
@@ -4744,16 +4747,16 @@
         <v>31</v>
       </c>
       <c r="F36" s="14" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="G36" s="14" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="H36" s="14" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="I36" s="14" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="K36" s="2"/>
       <c r="L36" s="2"/>
@@ -4794,7 +4797,7 @@
       <c r="BD36" s="21"/>
       <c r="BE36" s="21"/>
     </row>
-    <row r="37" spans="1:57" s="14" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:57" s="14" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A37" s="14" t="s">
         <v>35</v>
       </c>
@@ -4809,19 +4812,19 @@
         <v>52</v>
       </c>
       <c r="F37" s="14" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="G37" s="14" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H37" s="14" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="I37" s="14" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="J37" s="14" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="K37" s="2"/>
       <c r="L37" s="2"/>
@@ -4866,7 +4869,7 @@
       <c r="BD37" s="21"/>
       <c r="BE37" s="21"/>
     </row>
-    <row r="38" spans="1:57" s="14" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:57" s="14" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A38" s="14" t="s">
         <v>36</v>
       </c>
@@ -4881,16 +4884,16 @@
         <v>42</v>
       </c>
       <c r="F38" s="14" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="G38" s="14" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="H38" s="14" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="I38" s="14" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="K38" s="2"/>
       <c r="L38" s="2"/>
@@ -4939,7 +4942,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="39" spans="1:57" s="14" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:57" s="14" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A39" s="14" t="s">
         <v>37</v>
       </c>
@@ -4954,19 +4957,19 @@
         <v>11</v>
       </c>
       <c r="F39" s="14" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="G39" s="14" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H39" s="14" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="I39" s="14" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="J39" s="14" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="K39" s="2">
         <v>1</v>
@@ -5020,7 +5023,7 @@
       <c r="BD39" s="21"/>
       <c r="BE39" s="21"/>
     </row>
-    <row r="40" spans="1:57" s="14" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:57" s="14" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A40" s="14" t="s">
         <v>38</v>
       </c>
@@ -5035,16 +5038,16 @@
         <v>29</v>
       </c>
       <c r="F40" s="14" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="G40" s="14" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="H40" s="14" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="I40" s="14" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="K40" s="2"/>
       <c r="L40" s="2"/>
@@ -5089,7 +5092,7 @@
       <c r="BD40" s="21"/>
       <c r="BE40" s="21"/>
     </row>
-    <row r="41" spans="1:57" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:57" s="15" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A41" s="15" t="s">
         <v>39</v>
       </c>
@@ -5132,14 +5135,14 @@
       <c r="AY41" s="12"/>
       <c r="AZ41" s="12"/>
       <c r="BA41" s="15" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="BB41" s="21"/>
       <c r="BC41" s="21"/>
       <c r="BD41" s="21"/>
       <c r="BE41" s="21"/>
     </row>
-    <row r="42" spans="1:57" s="14" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:57" s="14" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A42" s="14" t="s">
         <v>40</v>
       </c>
@@ -5154,16 +5157,16 @@
         <v>43</v>
       </c>
       <c r="F42" s="14" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="G42" s="14" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H42" s="14" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="I42" s="14" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="K42" s="2"/>
       <c r="L42" s="2"/>
@@ -5210,7 +5213,7 @@
       <c r="BD42" s="21"/>
       <c r="BE42" s="21"/>
     </row>
-    <row r="43" spans="1:57" s="14" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:57" s="14" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A43" s="14" t="s">
         <v>41</v>
       </c>
@@ -5225,16 +5228,16 @@
         <v>30</v>
       </c>
       <c r="F43" s="15" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="G43" s="14" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="H43" s="15" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="I43" s="14" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="K43" s="2"/>
       <c r="L43" s="2"/>
@@ -5275,7 +5278,7 @@
       <c r="BD43" s="21"/>
       <c r="BE43" s="21"/>
     </row>
-    <row r="44" spans="1:57" s="14" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:57" s="14" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A44" s="14" t="s">
         <v>42</v>
       </c>
@@ -5290,16 +5293,16 @@
         <v>39</v>
       </c>
       <c r="F44" s="14" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="G44" s="14" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H44" s="14" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="I44" s="14" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="K44" s="2">
         <v>1</v>
@@ -5351,14 +5354,14 @@
       <c r="AY44" s="11"/>
       <c r="AZ44" s="11"/>
       <c r="BA44" s="14" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="BB44" s="21"/>
       <c r="BC44" s="21"/>
       <c r="BD44" s="21"/>
       <c r="BE44" s="21"/>
     </row>
-    <row r="45" spans="1:57" s="14" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:57" s="14" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A45" s="14" t="s">
         <v>43</v>
       </c>
@@ -5405,7 +5408,7 @@
       <c r="BD45" s="21"/>
       <c r="BE45" s="21"/>
     </row>
-    <row r="46" spans="1:57" s="14" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:57" s="14" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A46" s="14" t="s">
         <v>44</v>
       </c>
@@ -5420,16 +5423,16 @@
         <v>13</v>
       </c>
       <c r="F46" s="14" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="G46" s="14" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H46" s="14" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="I46" s="14" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="K46" s="2"/>
       <c r="L46" s="2"/>
@@ -5468,7 +5471,7 @@
       <c r="BD46" s="21"/>
       <c r="BE46" s="21"/>
     </row>
-    <row r="47" spans="1:57" s="14" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:57" s="14" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A47" s="14" t="s">
         <v>45</v>
       </c>
@@ -5483,16 +5486,16 @@
         <v>19</v>
       </c>
       <c r="F47" s="14" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="G47" s="14" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="H47" s="14" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="I47" s="14" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="K47" s="2"/>
       <c r="L47" s="2"/>
@@ -5539,7 +5542,7 @@
       <c r="BD47" s="21"/>
       <c r="BE47" s="21"/>
     </row>
-    <row r="48" spans="1:57" s="14" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:57" s="14" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A48" s="14" t="s">
         <v>46</v>
       </c>
@@ -5554,19 +5557,19 @@
         <v>43</v>
       </c>
       <c r="F48" s="14" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="G48" s="14" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H48" s="14" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="I48" s="14" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="J48" s="14" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="K48" s="2"/>
       <c r="L48" s="2"/>
@@ -5609,7 +5612,7 @@
       <c r="BD48" s="21"/>
       <c r="BE48" s="21"/>
     </row>
-    <row r="49" spans="1:57" s="14" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:57" s="14" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A49" s="14" t="s">
         <v>47</v>
       </c>
@@ -5624,16 +5627,16 @@
         <v>16</v>
       </c>
       <c r="F49" s="14" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="G49" s="14" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="H49" s="14" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="I49" s="14" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="K49" s="2"/>
       <c r="L49" s="2"/>
@@ -5674,7 +5677,7 @@
       <c r="BD49" s="21"/>
       <c r="BE49" s="21"/>
     </row>
-    <row r="50" spans="1:57" s="14" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:57" s="14" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A50" s="14" t="s">
         <v>48</v>
       </c>
@@ -5689,16 +5692,16 @@
         <v>32</v>
       </c>
       <c r="F50" s="14" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="G50" s="14" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="H50" s="14" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="I50" s="14" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="K50" s="2"/>
       <c r="L50" s="2"/>
@@ -5743,7 +5746,7 @@
       <c r="BD50" s="21"/>
       <c r="BE50" s="21"/>
     </row>
-    <row r="51" spans="1:57" s="14" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:57" s="14" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A51" s="14">
         <v>51</v>
       </c>
@@ -5758,16 +5761,16 @@
         <v>47</v>
       </c>
       <c r="F51" s="14" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="G51" s="14" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="H51" s="14" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="I51" s="14" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="K51" s="2"/>
       <c r="L51" s="2"/>
@@ -5799,7 +5802,7 @@
       <c r="AK51" s="13"/>
       <c r="AP51" s="9"/>
       <c r="AV51" s="7" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="AW51" s="5"/>
       <c r="AX51" s="5"/>
@@ -5810,7 +5813,7 @@
       <c r="BD51" s="21"/>
       <c r="BE51" s="21"/>
     </row>
-    <row r="52" spans="1:57" s="14" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:57" s="14" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A52" s="14">
         <v>52</v>
       </c>
@@ -5857,7 +5860,7 @@
       <c r="BD52" s="21"/>
       <c r="BE52" s="21"/>
     </row>
-    <row r="53" spans="1:57" s="14" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:57" s="14" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A53" s="14" t="s">
         <v>49</v>
       </c>
@@ -5872,16 +5875,16 @@
         <v>40</v>
       </c>
       <c r="F53" s="14" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="G53" s="14" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H53" s="14" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="I53" s="14" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="K53" s="2"/>
       <c r="L53" s="2"/>
@@ -5924,7 +5927,7 @@
       <c r="BD53" s="21"/>
       <c r="BE53" s="21"/>
     </row>
-    <row r="54" spans="1:57" s="14" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:57" s="14" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A54" s="14" t="s">
         <v>50</v>
       </c>
@@ -5939,16 +5942,16 @@
         <v>19</v>
       </c>
       <c r="F54" s="14" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="G54" s="14" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H54" s="14" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="I54" s="14" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="K54" s="2"/>
       <c r="L54" s="2"/>
@@ -5989,7 +5992,7 @@
       <c r="BD54" s="21"/>
       <c r="BE54" s="21"/>
     </row>
-    <row r="55" spans="1:57" s="14" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:57" s="14" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A55" s="14" t="s">
         <v>51</v>
       </c>
@@ -6004,16 +6007,16 @@
         <v>2</v>
       </c>
       <c r="F55" s="14" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="G55" s="14" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="H55" s="14" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="I55" s="14" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="K55" s="2"/>
       <c r="L55" s="2"/>
@@ -6058,7 +6061,7 @@
       <c r="BD55" s="21"/>
       <c r="BE55" s="21"/>
     </row>
-    <row r="56" spans="1:57" s="14" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:57" s="14" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A56" s="14" t="s">
         <v>52</v>
       </c>
@@ -6073,16 +6076,16 @@
         <v>10</v>
       </c>
       <c r="F56" s="14" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="G56" s="14" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H56" s="14" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="I56" s="14" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="K56" s="2"/>
       <c r="L56" s="2"/>
@@ -6123,7 +6126,7 @@
       <c r="BD56" s="21"/>
       <c r="BE56" s="21"/>
     </row>
-    <row r="57" spans="1:57" s="14" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:57" s="14" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A57" s="14" t="s">
         <v>53</v>
       </c>
@@ -6138,16 +6141,16 @@
         <v>45</v>
       </c>
       <c r="F57" s="14" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="G57" s="14" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="H57" s="14" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="I57" s="14" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="K57" s="2"/>
       <c r="L57" s="2"/>
@@ -6192,7 +6195,7 @@
       <c r="BD57" s="21"/>
       <c r="BE57" s="21"/>
     </row>
-    <row r="58" spans="1:57" s="14" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:57" s="14" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A58" s="14" t="s">
         <v>53</v>
       </c>
@@ -6209,16 +6212,16 @@
         <v>47</v>
       </c>
       <c r="F58" s="14" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="G58" s="14" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="H58" s="14" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="I58" s="14" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="K58" s="2"/>
       <c r="L58" s="2"/>
@@ -6263,7 +6266,7 @@
       <c r="BD58" s="21"/>
       <c r="BE58" s="21"/>
     </row>
-    <row r="59" spans="1:57" s="14" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:57" s="14" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A59" s="14" t="s">
         <v>54</v>
       </c>
@@ -6278,16 +6281,16 @@
         <v>24</v>
       </c>
       <c r="F59" s="14" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="G59" s="14" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H59" s="14" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="I59" s="14" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="K59" s="2">
         <v>1</v>
@@ -6336,7 +6339,7 @@
       <c r="BD59" s="21"/>
       <c r="BE59" s="21"/>
     </row>
-    <row r="60" spans="1:57" s="14" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:57" s="14" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A60" s="14" t="s">
         <v>55</v>
       </c>
@@ -6351,19 +6354,19 @@
         <v>1</v>
       </c>
       <c r="F60" s="14" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="G60" s="14" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H60" s="14" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="I60" s="14" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="J60" s="14" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="K60" s="2">
         <v>1</v>
@@ -6412,7 +6415,7 @@
       <c r="BD60" s="21"/>
       <c r="BE60" s="21"/>
     </row>
-    <row r="61" spans="1:57" s="14" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:57" s="14" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A61" s="14" t="s">
         <v>56</v>
       </c>
@@ -6427,16 +6430,16 @@
         <v>34</v>
       </c>
       <c r="F61" s="14" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="G61" s="14" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H61" s="14" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="I61" s="14" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="K61" s="2"/>
       <c r="L61" s="2">
@@ -6483,7 +6486,7 @@
       <c r="BD61" s="21"/>
       <c r="BE61" s="21"/>
     </row>
-    <row r="62" spans="1:57" s="14" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:57" s="14" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A62" s="14" t="s">
         <v>57</v>
       </c>
@@ -6498,16 +6501,16 @@
         <v>44</v>
       </c>
       <c r="F62" s="14" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="G62" s="14" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H62" s="14" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="I62" s="14" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="K62" s="2">
         <v>1</v>
@@ -6551,7 +6554,7 @@
       <c r="AP62" s="9"/>
       <c r="AV62" s="7"/>
       <c r="AW62" s="5" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="AX62" s="5" t="s">
         <v>148</v>
@@ -6563,7 +6566,7 @@
       <c r="BD62" s="21"/>
       <c r="BE62" s="21"/>
     </row>
-    <row r="63" spans="1:57" s="14" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:57" s="14" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A63" s="14" t="s">
         <v>58</v>
       </c>
@@ -6578,16 +6581,16 @@
         <v>30</v>
       </c>
       <c r="F63" s="14" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="G63" s="14" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H63" s="14" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="I63" s="14" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="K63" s="2">
         <v>1</v>
@@ -6631,7 +6634,7 @@
       <c r="BD63" s="21"/>
       <c r="BE63" s="21"/>
     </row>
-    <row r="64" spans="1:57" s="14" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:57" s="14" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A64" s="14" t="s">
         <v>59</v>
       </c>
@@ -6646,19 +6649,19 @@
         <v>40</v>
       </c>
       <c r="F64" s="14" t="s">
+        <v>216</v>
+      </c>
+      <c r="G64" s="14" t="s">
+        <v>150</v>
+      </c>
+      <c r="H64" s="14" t="s">
+        <v>208</v>
+      </c>
+      <c r="I64" s="14" t="s">
+        <v>203</v>
+      </c>
+      <c r="J64" s="14" t="s">
         <v>218</v>
-      </c>
-      <c r="G64" s="14" t="s">
-        <v>151</v>
-      </c>
-      <c r="H64" s="14" t="s">
-        <v>210</v>
-      </c>
-      <c r="I64" s="14" t="s">
-        <v>205</v>
-      </c>
-      <c r="J64" s="14" t="s">
-        <v>220</v>
       </c>
       <c r="K64" s="2"/>
       <c r="L64" s="2">
@@ -6708,7 +6711,7 @@
       <c r="BD64" s="21"/>
       <c r="BE64" s="21"/>
     </row>
-    <row r="65" spans="1:57" s="14" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:57" s="14" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A65" s="14" t="s">
         <v>60</v>
       </c>
@@ -6723,16 +6726,16 @@
         <v>54</v>
       </c>
       <c r="F65" s="14" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="G65" s="14" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H65" s="14" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="I65" s="14" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="K65" s="2"/>
       <c r="L65" s="2">
@@ -6782,7 +6785,7 @@
       <c r="BD65" s="21"/>
       <c r="BE65" s="21"/>
     </row>
-    <row r="66" spans="1:57" s="14" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:57" s="14" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A66" s="14" t="s">
         <v>61</v>
       </c>
@@ -6797,16 +6800,16 @@
         <v>17</v>
       </c>
       <c r="F66" s="14" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="G66" s="14" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H66" s="14" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="I66" s="14" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="K66" s="2"/>
       <c r="L66" s="2">
@@ -6856,7 +6859,7 @@
       <c r="BD66" s="21"/>
       <c r="BE66" s="21"/>
     </row>
-    <row r="67" spans="1:57" s="14" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:57" s="14" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A67" s="14" t="s">
         <v>62</v>
       </c>
@@ -6871,16 +6874,16 @@
         <v>34</v>
       </c>
       <c r="F67" s="14" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="G67" s="14" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H67" s="14" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="I67" s="14" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="K67" s="2"/>
       <c r="L67" s="2">
@@ -6930,7 +6933,7 @@
       <c r="BD67" s="21"/>
       <c r="BE67" s="21"/>
     </row>
-    <row r="68" spans="1:57" s="14" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:57" s="14" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A68" s="14" t="s">
         <v>63</v>
       </c>
@@ -6945,16 +6948,16 @@
         <v>42</v>
       </c>
       <c r="F68" s="14" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="G68" s="14" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H68" s="14" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="I68" s="14" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="K68" s="2"/>
       <c r="L68" s="2">
@@ -7004,7 +7007,7 @@
       <c r="BD68" s="21"/>
       <c r="BE68" s="21"/>
     </row>
-    <row r="69" spans="1:57" s="14" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:57" s="14" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A69" s="14" t="s">
         <v>64</v>
       </c>
@@ -7019,19 +7022,19 @@
         <v>53</v>
       </c>
       <c r="F69" s="14" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="G69" s="14" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H69" s="14" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="I69" s="14" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="J69" s="14" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="K69" s="2"/>
       <c r="L69" s="2">
@@ -7081,7 +7084,7 @@
       <c r="BD69" s="21"/>
       <c r="BE69" s="21"/>
     </row>
-    <row r="70" spans="1:57" s="14" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:57" s="14" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A70" s="14" t="s">
         <v>65</v>
       </c>
@@ -7096,16 +7099,16 @@
         <v>15</v>
       </c>
       <c r="F70" s="14" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="G70" s="14" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H70" s="14" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="I70" s="14" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="K70" s="2"/>
       <c r="L70" s="2">
@@ -7155,7 +7158,7 @@
       <c r="BD70" s="21"/>
       <c r="BE70" s="21"/>
     </row>
-    <row r="71" spans="1:57" s="14" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:57" s="14" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A71" s="14" t="s">
         <v>66</v>
       </c>
@@ -7170,16 +7173,16 @@
         <v>19</v>
       </c>
       <c r="F71" s="14" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="G71" s="14" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H71" s="14" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="I71" s="14" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="K71" s="2"/>
       <c r="L71" s="2">
@@ -7229,7 +7232,7 @@
       <c r="BD71" s="21"/>
       <c r="BE71" s="21"/>
     </row>
-    <row r="72" spans="1:57" s="14" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:57" s="14" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A72" s="14" t="s">
         <v>67</v>
       </c>
@@ -7244,16 +7247,16 @@
         <v>28</v>
       </c>
       <c r="F72" s="14" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="G72" s="14" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H72" s="14" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="I72" s="14" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="K72" s="2"/>
       <c r="L72" s="2">
@@ -7303,7 +7306,7 @@
       <c r="BD72" s="21"/>
       <c r="BE72" s="21"/>
     </row>
-    <row r="73" spans="1:57" s="14" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:57" s="14" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A73" s="14" t="s">
         <v>68</v>
       </c>
@@ -7318,16 +7321,16 @@
         <v>57</v>
       </c>
       <c r="F73" s="14" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="G73" s="14" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H73" s="14" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="I73" s="14" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="K73" s="2"/>
       <c r="L73" s="2">
@@ -7377,7 +7380,7 @@
       <c r="BD73" s="21"/>
       <c r="BE73" s="21"/>
     </row>
-    <row r="74" spans="1:57" s="14" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:57" s="14" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A74" s="14" t="s">
         <v>69</v>
       </c>
@@ -7392,16 +7395,16 @@
         <v>1</v>
       </c>
       <c r="F74" s="14" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="G74" s="14" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H74" s="14" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="I74" s="14" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="K74" s="2"/>
       <c r="L74" s="2">
@@ -7451,7 +7454,7 @@
       <c r="BD74" s="21"/>
       <c r="BE74" s="21"/>
     </row>
-    <row r="75" spans="1:57" s="14" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:57" s="14" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A75" s="14" t="s">
         <v>70</v>
       </c>
@@ -7466,16 +7469,16 @@
         <v>30</v>
       </c>
       <c r="F75" s="14" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="G75" s="14" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H75" s="14" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="I75" s="14" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="K75" s="2">
         <v>1</v>
@@ -7513,13 +7516,13 @@
       <c r="AP75" s="9"/>
       <c r="AV75" s="7"/>
       <c r="AW75" s="5" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="AX75" s="5" t="s">
         <v>148</v>
       </c>
       <c r="AY75" s="11" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="AZ75" s="11" t="s">
         <v>148</v>
@@ -7529,7 +7532,7 @@
       <c r="BD75" s="21"/>
       <c r="BE75" s="21"/>
     </row>
-    <row r="76" spans="1:57" s="14" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:57" s="14" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A76" s="14" t="s">
         <v>71</v>
       </c>
@@ -7544,16 +7547,16 @@
         <v>56</v>
       </c>
       <c r="F76" s="14" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="G76" s="14" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H76" s="14" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="I76" s="14" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="K76" s="2"/>
       <c r="L76" s="2">
@@ -7601,7 +7604,7 @@
       <c r="BD76" s="21"/>
       <c r="BE76" s="21"/>
     </row>
-    <row r="77" spans="1:57" s="14" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:57" s="14" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A77" s="14" t="s">
         <v>72</v>
       </c>
@@ -7616,16 +7619,16 @@
         <v>47</v>
       </c>
       <c r="F77" s="14" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="G77" s="14" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H77" s="14" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="I77" s="14" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="K77" s="2"/>
       <c r="L77" s="2">
@@ -7673,7 +7676,7 @@
       <c r="BD77" s="21"/>
       <c r="BE77" s="21"/>
     </row>
-    <row r="78" spans="1:57" s="14" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:57" s="14" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A78" s="14" t="s">
         <v>73</v>
       </c>
@@ -7688,16 +7691,16 @@
         <v>49</v>
       </c>
       <c r="F78" s="14" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="G78" s="14" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H78" s="14" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="I78" s="14" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="K78" s="2"/>
       <c r="L78" s="2">
@@ -7745,7 +7748,7 @@
       <c r="BD78" s="21"/>
       <c r="BE78" s="21"/>
     </row>
-    <row r="79" spans="1:57" s="14" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:57" s="14" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A79" s="14" t="s">
         <v>74</v>
       </c>
@@ -7760,16 +7763,16 @@
         <v>51</v>
       </c>
       <c r="F79" s="14" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="G79" s="14" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H79" s="14" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="I79" s="14" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="K79" s="2"/>
       <c r="L79" s="2">
@@ -7817,7 +7820,7 @@
       <c r="BD79" s="21"/>
       <c r="BE79" s="21"/>
     </row>
-    <row r="80" spans="1:57" s="14" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:57" s="14" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A80" s="14" t="s">
         <v>75</v>
       </c>
@@ -7832,16 +7835,16 @@
         <v>56</v>
       </c>
       <c r="F80" s="14" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="G80" s="14" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H80" s="14" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="I80" s="14" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="K80" s="2"/>
       <c r="L80" s="2">
@@ -7889,7 +7892,7 @@
       <c r="BD80" s="21"/>
       <c r="BE80" s="21"/>
     </row>
-    <row r="81" spans="1:57" s="14" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:57" s="14" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A81" s="14" t="s">
         <v>76</v>
       </c>
@@ -7904,16 +7907,16 @@
         <v>45</v>
       </c>
       <c r="F81" s="14" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="G81" s="14" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H81" s="14" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="I81" s="14" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="K81" s="2"/>
       <c r="L81" s="2"/>
@@ -7954,7 +7957,7 @@
       <c r="BD81" s="21"/>
       <c r="BE81" s="21"/>
     </row>
-    <row r="82" spans="1:57" s="14" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:57" s="14" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A82" s="14" t="s">
         <v>77</v>
       </c>
@@ -7969,16 +7972,16 @@
         <v>47</v>
       </c>
       <c r="F82" s="14" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="G82" s="14" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H82" s="14" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="I82" s="14" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="K82" s="2"/>
       <c r="L82" s="2"/>
@@ -8014,7 +8017,7 @@
       </c>
       <c r="AV82" s="7"/>
       <c r="AW82" s="5" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="AX82" s="5" t="s">
         <v>146</v>
@@ -8026,7 +8029,7 @@
       <c r="BD82" s="21"/>
       <c r="BE82" s="21"/>
     </row>
-    <row r="83" spans="1:57" s="14" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:57" s="14" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A83" s="14" t="s">
         <v>78</v>
       </c>
@@ -8041,16 +8044,16 @@
         <v>49</v>
       </c>
       <c r="F83" s="14" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="G83" s="14" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="H83" s="14" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="I83" s="14" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="K83" s="2"/>
       <c r="L83" s="2"/>
@@ -8097,7 +8100,7 @@
       <c r="BD83" s="21"/>
       <c r="BE83" s="21"/>
     </row>
-    <row r="84" spans="1:57" s="14" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:57" s="14" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A84" s="14" t="s">
         <v>79</v>
       </c>
@@ -8112,16 +8115,16 @@
         <v>29</v>
       </c>
       <c r="F84" s="14" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="G84" s="14" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H84" s="14" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="I84" s="14" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="K84" s="2"/>
       <c r="L84" s="2">
@@ -8164,7 +8167,7 @@
       <c r="BD84" s="21"/>
       <c r="BE84" s="21"/>
     </row>
-    <row r="85" spans="1:57" s="14" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:57" s="14" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A85" s="14" t="s">
         <v>80</v>
       </c>
@@ -8179,19 +8182,19 @@
         <v>12</v>
       </c>
       <c r="F85" s="14" t="s">
+        <v>224</v>
+      </c>
+      <c r="G85" s="14" t="s">
+        <v>150</v>
+      </c>
+      <c r="H85" s="14" t="s">
+        <v>227</v>
+      </c>
+      <c r="I85" s="14" t="s">
+        <v>203</v>
+      </c>
+      <c r="J85" s="14" t="s">
         <v>226</v>
-      </c>
-      <c r="G85" s="14" t="s">
-        <v>151</v>
-      </c>
-      <c r="H85" s="14" t="s">
-        <v>229</v>
-      </c>
-      <c r="I85" s="14" t="s">
-        <v>205</v>
-      </c>
-      <c r="J85" s="14" t="s">
-        <v>228</v>
       </c>
       <c r="K85" s="2"/>
       <c r="L85" s="2"/>
@@ -8234,7 +8237,7 @@
       <c r="BD85" s="21"/>
       <c r="BE85" s="21"/>
     </row>
-    <row r="86" spans="1:57" s="14" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:57" s="14" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A86" s="14" t="s">
         <v>81</v>
       </c>
@@ -8281,7 +8284,7 @@
       <c r="BD86" s="21"/>
       <c r="BE86" s="21"/>
     </row>
-    <row r="87" spans="1:57" s="14" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:57" s="14" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A87" s="14" t="s">
         <v>82</v>
       </c>
@@ -8296,16 +8299,16 @@
         <v>22</v>
       </c>
       <c r="F87" s="17" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="G87" s="14" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H87" s="14" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="I87" s="14" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="K87" s="2"/>
       <c r="L87" s="2"/>
@@ -8350,7 +8353,7 @@
       <c r="BD87" s="21"/>
       <c r="BE87" s="21"/>
     </row>
-    <row r="88" spans="1:57" s="14" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:57" s="14" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A88" s="14" t="s">
         <v>83</v>
       </c>
@@ -8365,16 +8368,16 @@
         <v>47</v>
       </c>
       <c r="F88" s="17" t="s">
+        <v>225</v>
+      </c>
+      <c r="G88" s="14" t="s">
+        <v>150</v>
+      </c>
+      <c r="H88" s="14" t="s">
         <v>227</v>
       </c>
-      <c r="G88" s="14" t="s">
-        <v>151</v>
-      </c>
-      <c r="H88" s="14" t="s">
-        <v>229</v>
-      </c>
       <c r="I88" s="14" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="K88" s="2"/>
       <c r="L88" s="2"/>
@@ -8417,7 +8420,7 @@
       <c r="BD88" s="21"/>
       <c r="BE88" s="21"/>
     </row>
-    <row r="89" spans="1:57" s="14" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:57" s="14" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A89" s="14" t="s">
         <v>84</v>
       </c>
@@ -8432,16 +8435,16 @@
         <v>2</v>
       </c>
       <c r="F89" s="14" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="G89" s="14" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H89" s="14" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="I89" s="14" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="K89" s="2"/>
       <c r="L89" s="2"/>
@@ -8485,7 +8488,7 @@
       <c r="BD89" s="21"/>
       <c r="BE89" s="21"/>
     </row>
-    <row r="90" spans="1:57" s="14" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:57" s="14" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A90" s="14" t="s">
         <v>85</v>
       </c>
@@ -8532,7 +8535,7 @@
       <c r="BD90" s="21"/>
       <c r="BE90" s="21"/>
     </row>
-    <row r="91" spans="1:57" s="14" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:57" s="14" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A91" s="14" t="s">
         <v>86</v>
       </c>
@@ -8547,19 +8550,19 @@
         <v>22</v>
       </c>
       <c r="F91" s="14" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="G91" s="14" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H91" s="14" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="I91" s="14" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="J91" s="14" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="K91" s="2"/>
       <c r="L91" s="2"/>
@@ -8607,7 +8610,7 @@
       <c r="BD91" s="21"/>
       <c r="BE91" s="21"/>
     </row>
-    <row r="92" spans="1:57" s="14" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:57" s="14" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A92" s="14" t="s">
         <v>87</v>
       </c>
@@ -8622,16 +8625,16 @@
         <v>43</v>
       </c>
       <c r="F92" s="14" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="G92" s="14" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H92" s="14" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="I92" s="14" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="K92" s="2"/>
       <c r="L92" s="2"/>
@@ -8673,7 +8676,7 @@
       <c r="BD92" s="21"/>
       <c r="BE92" s="21"/>
     </row>
-    <row r="93" spans="1:57" s="14" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:57" s="14" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A93" s="14" t="s">
         <v>88</v>
       </c>
@@ -8688,19 +8691,19 @@
         <v>52</v>
       </c>
       <c r="F93" s="14" t="s">
+        <v>228</v>
+      </c>
+      <c r="G93" s="14" t="s">
+        <v>150</v>
+      </c>
+      <c r="H93" s="14" t="s">
+        <v>329</v>
+      </c>
+      <c r="I93" s="14" t="s">
+        <v>203</v>
+      </c>
+      <c r="J93" s="14" t="s">
         <v>230</v>
-      </c>
-      <c r="G93" s="14" t="s">
-        <v>151</v>
-      </c>
-      <c r="H93" s="14" t="s">
-        <v>331</v>
-      </c>
-      <c r="I93" s="14" t="s">
-        <v>205</v>
-      </c>
-      <c r="J93" s="14" t="s">
-        <v>232</v>
       </c>
       <c r="K93" s="2"/>
       <c r="L93" s="2">
@@ -8748,7 +8751,7 @@
       <c r="BD93" s="21"/>
       <c r="BE93" s="21"/>
     </row>
-    <row r="94" spans="1:57" s="14" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:57" s="14" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A94" s="14" t="s">
         <v>89</v>
       </c>
@@ -8795,7 +8798,7 @@
       <c r="BD94" s="21"/>
       <c r="BE94" s="21"/>
     </row>
-    <row r="95" spans="1:57" s="14" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:57" s="14" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A95" s="14" t="s">
         <v>90</v>
       </c>
@@ -8810,19 +8813,19 @@
         <v>49</v>
       </c>
       <c r="F95" s="14" t="s">
+        <v>231</v>
+      </c>
+      <c r="G95" s="14" t="s">
+        <v>260</v>
+      </c>
+      <c r="H95" s="14" t="s">
+        <v>232</v>
+      </c>
+      <c r="I95" s="14" t="s">
+        <v>203</v>
+      </c>
+      <c r="J95" s="14" t="s">
         <v>233</v>
-      </c>
-      <c r="G95" s="14" t="s">
-        <v>262</v>
-      </c>
-      <c r="H95" s="14" t="s">
-        <v>234</v>
-      </c>
-      <c r="I95" s="14" t="s">
-        <v>205</v>
-      </c>
-      <c r="J95" s="14" t="s">
-        <v>235</v>
       </c>
       <c r="K95" s="2"/>
       <c r="L95" s="2"/>
@@ -8865,7 +8868,7 @@
       <c r="BD95" s="21"/>
       <c r="BE95" s="21"/>
     </row>
-    <row r="96" spans="1:57" s="14" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:57" s="14" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A96" s="14" t="s">
         <v>91</v>
       </c>
@@ -8912,7 +8915,7 @@
       <c r="BD96" s="21"/>
       <c r="BE96" s="21"/>
     </row>
-    <row r="97" spans="1:57" s="14" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:57" s="14" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A97" s="14" t="s">
         <v>92</v>
       </c>
@@ -8927,16 +8930,16 @@
         <v>29</v>
       </c>
       <c r="F97" s="14" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="G97" s="14" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H97" s="14" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="I97" s="14" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="K97" s="2"/>
       <c r="L97" s="2">
@@ -8984,7 +8987,7 @@
       <c r="BD97" s="21"/>
       <c r="BE97" s="21"/>
     </row>
-    <row r="98" spans="1:57" s="14" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:57" s="14" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A98" s="14" t="s">
         <v>93</v>
       </c>
@@ -9031,7 +9034,7 @@
       <c r="BD98" s="21"/>
       <c r="BE98" s="21"/>
     </row>
-    <row r="99" spans="1:57" s="14" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:57" s="14" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A99" s="14" t="s">
         <v>94</v>
       </c>
@@ -9046,19 +9049,19 @@
         <v>10</v>
       </c>
       <c r="F99" s="14" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="G99" s="14" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H99" s="14" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="I99" s="14" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="J99" s="14" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="K99" s="2"/>
       <c r="L99" s="2">
@@ -9103,7 +9106,7 @@
       <c r="BD99" s="21"/>
       <c r="BE99" s="21"/>
     </row>
-    <row r="100" spans="1:57" s="14" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:57" s="14" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A100" s="14" t="s">
         <v>95</v>
       </c>
@@ -9118,19 +9121,19 @@
         <v>34</v>
       </c>
       <c r="F100" s="14" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="G100" s="14" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="H100" s="14" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="I100" s="14" t="s">
+        <v>235</v>
+      </c>
+      <c r="J100" s="14" t="s">
         <v>237</v>
-      </c>
-      <c r="J100" s="14" t="s">
-        <v>239</v>
       </c>
       <c r="K100" s="2"/>
       <c r="L100" s="2"/>
@@ -9179,7 +9182,7 @@
       <c r="BD100" s="21"/>
       <c r="BE100" s="21"/>
     </row>
-    <row r="101" spans="1:57" s="14" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:57" s="14" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A101" s="14" t="s">
         <v>96</v>
       </c>
@@ -9226,7 +9229,7 @@
       <c r="BD101" s="21"/>
       <c r="BE101" s="21"/>
     </row>
-    <row r="102" spans="1:57" s="14" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:57" s="14" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A102" s="14" t="s">
         <v>97</v>
       </c>
@@ -9244,16 +9247,16 @@
         <v>147</v>
       </c>
       <c r="G102" s="14" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H102" s="14" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="I102" s="14" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="J102" s="14" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="K102" s="2"/>
       <c r="L102" s="2">
@@ -9308,7 +9311,7 @@
       <c r="BD102" s="21"/>
       <c r="BE102" s="21"/>
     </row>
-    <row r="103" spans="1:57" s="14" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:57" s="14" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A103" s="14">
         <v>97</v>
       </c>
@@ -9355,7 +9358,7 @@
       <c r="BD103" s="21"/>
       <c r="BE103" s="21"/>
     </row>
-    <row r="104" spans="1:57" s="14" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:57" s="14" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A104" s="14">
         <v>101</v>
       </c>
@@ -9402,7 +9405,7 @@
       <c r="BD104" s="21"/>
       <c r="BE104" s="21"/>
     </row>
-    <row r="105" spans="1:57" s="14" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:57" s="14" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A105" s="14" t="s">
         <v>98</v>
       </c>
@@ -9417,19 +9420,19 @@
         <v>55</v>
       </c>
       <c r="F105" s="14" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="G105" s="14" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="H105" s="14" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="I105" s="14" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="J105" s="14" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="K105" s="2"/>
       <c r="L105" s="2"/>
@@ -9476,7 +9479,7 @@
       <c r="BD105" s="21"/>
       <c r="BE105" s="21"/>
     </row>
-    <row r="106" spans="1:57" s="14" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:57" s="14" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A106" s="14" t="s">
         <v>99</v>
       </c>
@@ -9491,19 +9494,19 @@
         <v>46</v>
       </c>
       <c r="F106" s="14" t="s">
+        <v>247</v>
+      </c>
+      <c r="G106" s="14" t="s">
+        <v>150</v>
+      </c>
+      <c r="H106" s="14" t="s">
         <v>249</v>
       </c>
-      <c r="G106" s="14" t="s">
-        <v>151</v>
-      </c>
-      <c r="H106" s="14" t="s">
-        <v>251</v>
-      </c>
       <c r="I106" s="14" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="J106" s="14" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="K106" s="2"/>
       <c r="L106" s="2">
@@ -9551,7 +9554,7 @@
       <c r="BD106" s="21"/>
       <c r="BE106" s="21"/>
     </row>
-    <row r="107" spans="1:57" s="14" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:57" s="14" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A107" s="14" t="s">
         <v>100</v>
       </c>
@@ -9566,16 +9569,16 @@
         <v>33</v>
       </c>
       <c r="F107" s="14" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="G107" s="14" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="H107" s="14" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="I107" s="14" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="K107" s="2"/>
       <c r="L107" s="2"/>
@@ -9618,7 +9621,7 @@
       <c r="BD107" s="21"/>
       <c r="BE107" s="21"/>
     </row>
-    <row r="108" spans="1:57" s="14" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:57" s="14" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A108" s="14" t="s">
         <v>101</v>
       </c>
@@ -9633,16 +9636,16 @@
         <v>44</v>
       </c>
       <c r="F108" s="14" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="G108" s="14" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H108" s="14" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="I108" s="14" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="K108" s="2"/>
       <c r="L108" s="2"/>
@@ -9685,7 +9688,7 @@
       <c r="BD108" s="21"/>
       <c r="BE108" s="21"/>
     </row>
-    <row r="109" spans="1:57" s="14" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:57" s="14" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A109" s="14">
         <v>103</v>
       </c>
@@ -9700,19 +9703,19 @@
         <v>24</v>
       </c>
       <c r="F109" s="14" t="s">
+        <v>246</v>
+      </c>
+      <c r="G109" s="14" t="s">
+        <v>150</v>
+      </c>
+      <c r="H109" s="14" t="s">
+        <v>276</v>
+      </c>
+      <c r="I109" s="14" t="s">
+        <v>235</v>
+      </c>
+      <c r="J109" s="14" t="s">
         <v>248</v>
-      </c>
-      <c r="G109" s="14" t="s">
-        <v>151</v>
-      </c>
-      <c r="H109" s="14" t="s">
-        <v>278</v>
-      </c>
-      <c r="I109" s="14" t="s">
-        <v>237</v>
-      </c>
-      <c r="J109" s="14" t="s">
-        <v>250</v>
       </c>
       <c r="K109" s="2"/>
       <c r="L109" s="2"/>
@@ -9758,7 +9761,7 @@
       <c r="BD109" s="21"/>
       <c r="BE109" s="21"/>
     </row>
-    <row r="110" spans="1:57" s="14" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:57" s="14" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A110" s="14" t="s">
         <v>102</v>
       </c>
@@ -9805,7 +9808,7 @@
       <c r="BD110" s="21"/>
       <c r="BE110" s="21"/>
     </row>
-    <row r="111" spans="1:57" s="14" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:57" s="14" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A111" s="14" t="s">
         <v>103</v>
       </c>
@@ -9820,16 +9823,16 @@
         <v>32</v>
       </c>
       <c r="F111" s="14" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="G111" s="14" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="H111" s="14" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="I111" s="14" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="K111" s="2"/>
       <c r="L111" s="2"/>
@@ -9872,7 +9875,7 @@
       <c r="BD111" s="21"/>
       <c r="BE111" s="21"/>
     </row>
-    <row r="112" spans="1:57" s="14" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:57" s="14" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A112" s="14" t="s">
         <v>104</v>
       </c>
@@ -9887,16 +9890,16 @@
         <v>16</v>
       </c>
       <c r="F112" s="14" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="G112" s="14" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H112" s="14" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="I112" s="14" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="K112" s="2"/>
       <c r="L112" s="2"/>
@@ -9937,7 +9940,7 @@
       <c r="BD112" s="21"/>
       <c r="BE112" s="21"/>
     </row>
-    <row r="113" spans="1:57" s="14" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:57" s="14" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A113" s="14" t="s">
         <v>104</v>
       </c>
@@ -9954,16 +9957,16 @@
         <v>31</v>
       </c>
       <c r="F113" s="14" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="G113" s="14" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="H113" s="14" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="I113" s="14" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="K113" s="2"/>
       <c r="L113" s="2"/>
@@ -10006,7 +10009,7 @@
       <c r="BD113" s="21"/>
       <c r="BE113" s="21"/>
     </row>
-    <row r="114" spans="1:57" s="14" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:57" s="14" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A114" s="14" t="s">
         <v>105</v>
       </c>
@@ -10021,16 +10024,16 @@
         <v>52</v>
       </c>
       <c r="F114" s="14" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="G114" s="14" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H114" s="14" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="I114" s="14" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="K114" s="2"/>
       <c r="L114" s="2"/>
@@ -10071,7 +10074,7 @@
       <c r="BD114" s="21"/>
       <c r="BE114" s="21"/>
     </row>
-    <row r="115" spans="1:57" s="14" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:57" s="14" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A115" s="14" t="s">
         <v>105</v>
       </c>
@@ -10088,16 +10091,16 @@
         <v>59</v>
       </c>
       <c r="F115" s="14" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="G115" s="14" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="H115" s="14" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="I115" s="14" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="K115" s="2"/>
       <c r="L115" s="2"/>
@@ -10140,7 +10143,7 @@
       <c r="BD115" s="21"/>
       <c r="BE115" s="21"/>
     </row>
-    <row r="116" spans="1:57" s="14" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:57" s="14" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A116" s="14" t="s">
         <v>105</v>
       </c>
@@ -10157,16 +10160,16 @@
         <v>7</v>
       </c>
       <c r="F116" s="14" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="G116" s="14" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H116" s="14" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="I116" s="14" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="K116" s="2"/>
       <c r="L116" s="2"/>
@@ -10207,7 +10210,7 @@
       <c r="BD116" s="21"/>
       <c r="BE116" s="21"/>
     </row>
-    <row r="117" spans="1:57" s="14" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:57" s="14" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A117" s="14" t="s">
         <v>105</v>
       </c>
@@ -10224,16 +10227,16 @@
         <v>12</v>
       </c>
       <c r="F117" s="14" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="G117" s="14" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="H117" s="14" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="I117" s="14" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="K117" s="2"/>
       <c r="L117" s="2"/>
@@ -10276,7 +10279,7 @@
       <c r="BD117" s="21"/>
       <c r="BE117" s="21"/>
     </row>
-    <row r="118" spans="1:57" s="14" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:57" s="14" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A118" s="14" t="s">
         <v>105</v>
       </c>
@@ -10293,16 +10296,16 @@
         <v>14</v>
       </c>
       <c r="F118" s="14" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="G118" s="14" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H118" s="14" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="I118" s="14" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="K118" s="2"/>
       <c r="L118" s="2"/>
@@ -10343,7 +10346,7 @@
       <c r="BD118" s="21"/>
       <c r="BE118" s="21"/>
     </row>
-    <row r="119" spans="1:57" s="14" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:57" s="14" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A119" s="14" t="s">
         <v>106</v>
       </c>
@@ -10358,16 +10361,16 @@
         <v>19</v>
       </c>
       <c r="F119" s="14" t="s">
+        <v>247</v>
+      </c>
+      <c r="G119" s="14" t="s">
+        <v>150</v>
+      </c>
+      <c r="H119" s="14" t="s">
         <v>249</v>
       </c>
-      <c r="G119" s="14" t="s">
-        <v>151</v>
-      </c>
-      <c r="H119" s="14" t="s">
-        <v>251</v>
-      </c>
       <c r="I119" s="14" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="K119" s="2"/>
       <c r="L119" s="2">
@@ -10412,7 +10415,7 @@
       <c r="BD119" s="21"/>
       <c r="BE119" s="21"/>
     </row>
-    <row r="120" spans="1:57" s="14" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:57" s="14" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A120" s="14" t="s">
         <v>107</v>
       </c>
@@ -10427,16 +10430,16 @@
         <v>30</v>
       </c>
       <c r="F120" s="14" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="G120" s="14" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H120" s="14" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="I120" s="14" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="K120" s="2"/>
       <c r="L120" s="2"/>
@@ -10477,7 +10480,7 @@
       <c r="BD120" s="21"/>
       <c r="BE120" s="21"/>
     </row>
-    <row r="121" spans="1:57" s="14" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:57" s="14" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A121" s="14" t="s">
         <v>107</v>
       </c>
@@ -10494,16 +10497,16 @@
         <v>58</v>
       </c>
       <c r="F121" s="14" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="G121" s="14" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="H121" s="14" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="I121" s="14" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="K121" s="2"/>
       <c r="L121" s="2"/>
@@ -10546,7 +10549,7 @@
       <c r="BD121" s="21"/>
       <c r="BE121" s="21"/>
     </row>
-    <row r="122" spans="1:57" s="14" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:57" s="14" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A122" s="14" t="s">
         <v>107</v>
       </c>
@@ -10563,16 +10566,16 @@
         <v>8</v>
       </c>
       <c r="F122" s="14" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="G122" s="14" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H122" s="14" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="I122" s="14" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="K122" s="2"/>
       <c r="L122" s="2"/>
@@ -10613,7 +10616,7 @@
       <c r="BD122" s="21"/>
       <c r="BE122" s="21"/>
     </row>
-    <row r="123" spans="1:57" s="14" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:57" s="14" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A123" s="14" t="s">
         <v>107</v>
       </c>
@@ -10630,16 +10633,16 @@
         <v>20</v>
       </c>
       <c r="F123" s="14" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="G123" s="14" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="H123" s="14" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="I123" s="14" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="K123" s="2"/>
       <c r="L123" s="2"/>
@@ -10682,7 +10685,7 @@
       <c r="BD123" s="21"/>
       <c r="BE123" s="21"/>
     </row>
-    <row r="124" spans="1:57" s="14" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:57" s="14" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A124" s="14" t="s">
         <v>107</v>
       </c>
@@ -10699,16 +10702,16 @@
         <v>27</v>
       </c>
       <c r="F124" s="14" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="G124" s="14" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H124" s="14" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="I124" s="14" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="K124" s="2"/>
       <c r="L124" s="2"/>
@@ -10749,7 +10752,7 @@
       <c r="BD124" s="21"/>
       <c r="BE124" s="21"/>
     </row>
-    <row r="125" spans="1:57" s="14" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:57" s="14" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A125" s="14" t="s">
         <v>108</v>
       </c>
@@ -10764,16 +10767,16 @@
         <v>45</v>
       </c>
       <c r="F125" s="14" t="s">
+        <v>247</v>
+      </c>
+      <c r="G125" s="14" t="s">
+        <v>150</v>
+      </c>
+      <c r="H125" s="14" t="s">
         <v>249</v>
       </c>
-      <c r="G125" s="14" t="s">
-        <v>151</v>
-      </c>
-      <c r="H125" s="14" t="s">
-        <v>251</v>
-      </c>
       <c r="I125" s="14" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="K125" s="2"/>
       <c r="L125" s="2">
@@ -10818,7 +10821,7 @@
       <c r="BD125" s="21"/>
       <c r="BE125" s="21"/>
     </row>
-    <row r="126" spans="1:57" s="14" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:57" s="14" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A126" s="14" t="s">
         <v>109</v>
       </c>
@@ -10833,16 +10836,16 @@
         <v>36</v>
       </c>
       <c r="F126" s="14" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="G126" s="14" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H126" s="14" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="I126" s="14" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="K126" s="2"/>
       <c r="L126" s="2"/>
@@ -10883,7 +10886,7 @@
       <c r="BD126" s="21"/>
       <c r="BE126" s="21"/>
     </row>
-    <row r="127" spans="1:57" s="14" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:57" s="14" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A127" s="14" t="s">
         <v>110</v>
       </c>
@@ -10898,16 +10901,16 @@
         <v>38</v>
       </c>
       <c r="F127" s="14" t="s">
+        <v>247</v>
+      </c>
+      <c r="G127" s="14" t="s">
+        <v>150</v>
+      </c>
+      <c r="H127" s="14" t="s">
         <v>249</v>
       </c>
-      <c r="G127" s="14" t="s">
-        <v>151</v>
-      </c>
-      <c r="H127" s="14" t="s">
-        <v>251</v>
-      </c>
       <c r="I127" s="14" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="K127" s="2"/>
       <c r="L127" s="2">
@@ -10952,7 +10955,7 @@
       <c r="BD127" s="21"/>
       <c r="BE127" s="21"/>
     </row>
-    <row r="128" spans="1:57" s="14" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:57" s="14" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A128" s="14" t="s">
         <v>111</v>
       </c>
@@ -10967,16 +10970,16 @@
         <v>47</v>
       </c>
       <c r="F128" s="14" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="G128" s="14" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="H128" s="14" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="I128" s="14" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="K128" s="2"/>
       <c r="L128" s="2"/>
@@ -11019,7 +11022,7 @@
       <c r="BD128" s="21"/>
       <c r="BE128" s="21"/>
     </row>
-    <row r="129" spans="1:57" s="14" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:57" s="14" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A129" s="14" t="s">
         <v>111</v>
       </c>
@@ -11036,16 +11039,16 @@
         <v>54</v>
       </c>
       <c r="F129" s="14" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="G129" s="14" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H129" s="14" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="I129" s="14" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="K129" s="2"/>
       <c r="L129" s="2"/>
@@ -11086,7 +11089,7 @@
       <c r="BD129" s="21"/>
       <c r="BE129" s="21"/>
     </row>
-    <row r="130" spans="1:57" s="14" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:57" s="14" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A130" s="14" t="s">
         <v>112</v>
       </c>
@@ -11101,16 +11104,16 @@
         <v>5</v>
       </c>
       <c r="F130" s="14" t="s">
+        <v>247</v>
+      </c>
+      <c r="G130" s="14" t="s">
+        <v>150</v>
+      </c>
+      <c r="H130" s="14" t="s">
         <v>249</v>
       </c>
-      <c r="G130" s="14" t="s">
-        <v>151</v>
-      </c>
-      <c r="H130" s="14" t="s">
-        <v>251</v>
-      </c>
       <c r="I130" s="14" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="K130" s="2"/>
       <c r="L130" s="2">
@@ -11155,7 +11158,7 @@
       <c r="BD130" s="21"/>
       <c r="BE130" s="21"/>
     </row>
-    <row r="131" spans="1:57" s="14" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:57" s="14" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A131" s="14" t="s">
         <v>113</v>
       </c>
@@ -11170,16 +11173,16 @@
         <v>16</v>
       </c>
       <c r="F131" s="14" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="G131" s="14" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H131" s="14" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="I131" s="14" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="K131" s="2"/>
       <c r="L131" s="2"/>
@@ -11220,7 +11223,7 @@
       <c r="BD131" s="21"/>
       <c r="BE131" s="21"/>
     </row>
-    <row r="132" spans="1:57" s="14" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:57" s="14" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A132" s="14" t="s">
         <v>114</v>
       </c>
@@ -11235,16 +11238,16 @@
         <v>18</v>
       </c>
       <c r="F132" s="14" t="s">
+        <v>247</v>
+      </c>
+      <c r="G132" s="14" t="s">
+        <v>150</v>
+      </c>
+      <c r="H132" s="14" t="s">
         <v>249</v>
       </c>
-      <c r="G132" s="14" t="s">
-        <v>151</v>
-      </c>
-      <c r="H132" s="14" t="s">
-        <v>251</v>
-      </c>
       <c r="I132" s="14" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="K132" s="2"/>
       <c r="L132" s="2">
@@ -11289,7 +11292,7 @@
       <c r="BD132" s="21"/>
       <c r="BE132" s="21"/>
     </row>
-    <row r="133" spans="1:57" s="14" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:57" s="14" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A133" s="14" t="s">
         <v>115</v>
       </c>
@@ -11304,16 +11307,16 @@
         <v>25</v>
       </c>
       <c r="F133" s="14" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="G133" s="14" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H133" s="14" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="I133" s="14" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="K133" s="2"/>
       <c r="L133" s="2"/>
@@ -11354,7 +11357,7 @@
       <c r="BD133" s="21"/>
       <c r="BE133" s="21"/>
     </row>
-    <row r="134" spans="1:57" s="14" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:57" s="14" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A134" s="14" t="s">
         <v>116</v>
       </c>
@@ -11401,7 +11404,7 @@
       <c r="BD134" s="21"/>
       <c r="BE134" s="21"/>
     </row>
-    <row r="135" spans="1:57" s="14" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:57" s="14" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A135" s="14" t="s">
         <v>117</v>
       </c>
@@ -11416,16 +11419,16 @@
         <v>28</v>
       </c>
       <c r="F135" s="14" t="s">
+        <v>247</v>
+      </c>
+      <c r="G135" s="14" t="s">
+        <v>150</v>
+      </c>
+      <c r="H135" s="14" t="s">
         <v>249</v>
       </c>
-      <c r="G135" s="14" t="s">
-        <v>151</v>
-      </c>
-      <c r="H135" s="14" t="s">
-        <v>251</v>
-      </c>
       <c r="I135" s="14" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="K135" s="2"/>
       <c r="L135" s="2">
@@ -11464,17 +11467,17 @@
       <c r="AW135" s="5"/>
       <c r="AX135" s="5"/>
       <c r="AY135" s="11" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="AZ135" s="11" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="BB135" s="21"/>
       <c r="BC135" s="21"/>
       <c r="BD135" s="21"/>
       <c r="BE135" s="21"/>
     </row>
-    <row r="136" spans="1:57" s="14" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:57" s="14" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A136" s="14" t="s">
         <v>118</v>
       </c>
@@ -11489,16 +11492,16 @@
         <v>44</v>
       </c>
       <c r="F136" s="14" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="G136" s="14" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H136" s="14" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="I136" s="14" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="K136" s="2"/>
       <c r="L136" s="2"/>
@@ -11536,10 +11539,10 @@
       <c r="AP136" s="9"/>
       <c r="AV136" s="7"/>
       <c r="AW136" s="5" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="AX136" s="5" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="AY136" s="11"/>
       <c r="AZ136" s="11"/>
@@ -11548,7 +11551,7 @@
       <c r="BD136" s="21"/>
       <c r="BE136" s="21"/>
     </row>
-    <row r="137" spans="1:57" s="14" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:57" s="14" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A137" s="14" t="s">
         <v>119</v>
       </c>
@@ -11563,16 +11566,16 @@
         <v>33</v>
       </c>
       <c r="F137" s="14" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="G137" s="14" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H137" s="14" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="I137" s="14" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="K137" s="2"/>
       <c r="L137" s="2"/>
@@ -11616,7 +11619,7 @@
       <c r="BD137" s="21"/>
       <c r="BE137" s="21"/>
     </row>
-    <row r="138" spans="1:57" s="14" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:57" s="14" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A138" s="14" t="s">
         <v>119</v>
       </c>
@@ -11633,16 +11636,16 @@
         <v>45</v>
       </c>
       <c r="F138" s="14" t="s">
+        <v>247</v>
+      </c>
+      <c r="G138" s="14" t="s">
+        <v>150</v>
+      </c>
+      <c r="H138" s="14" t="s">
         <v>249</v>
       </c>
-      <c r="G138" s="14" t="s">
-        <v>151</v>
-      </c>
-      <c r="H138" s="14" t="s">
-        <v>251</v>
-      </c>
       <c r="I138" s="14" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="K138" s="2"/>
       <c r="L138" s="2">
@@ -11687,7 +11690,7 @@
       <c r="BD138" s="21"/>
       <c r="BE138" s="21"/>
     </row>
-    <row r="139" spans="1:57" s="14" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:57" s="14" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A139" s="14" t="s">
         <v>120</v>
       </c>
@@ -11702,19 +11705,19 @@
         <v>40</v>
       </c>
       <c r="F139" s="14" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="G139" s="14" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H139" s="14" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="I139" s="14" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="J139" s="14" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="K139" s="2"/>
       <c r="L139" s="2"/>
@@ -11753,10 +11756,10 @@
       <c r="AP139" s="9"/>
       <c r="AV139" s="7"/>
       <c r="AW139" s="5" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="AX139" s="5" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="AY139" s="11"/>
       <c r="AZ139" s="11"/>
@@ -11765,7 +11768,7 @@
       <c r="BD139" s="21"/>
       <c r="BE139" s="21"/>
     </row>
-    <row r="140" spans="1:57" s="14" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:57" s="14" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A140" s="14" t="s">
         <v>121</v>
       </c>
@@ -11780,16 +11783,16 @@
         <v>12</v>
       </c>
       <c r="F140" s="14" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="G140" s="14" t="s">
+        <v>260</v>
+      </c>
+      <c r="H140" s="14" t="s">
         <v>262</v>
       </c>
-      <c r="H140" s="14" t="s">
-        <v>264</v>
-      </c>
       <c r="I140" s="14" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="K140" s="2"/>
       <c r="L140" s="2">
@@ -11838,7 +11841,7 @@
       <c r="BD140" s="21"/>
       <c r="BE140" s="21"/>
     </row>
-    <row r="141" spans="1:57" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:57" x14ac:dyDescent="0.45">
       <c r="A141" s="1" t="s">
         <v>122</v>
       </c>
@@ -11852,16 +11855,16 @@
         <v>20</v>
       </c>
       <c r="F141" s="1" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="G141" s="1" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="H141" s="1" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="I141" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="L141" s="2">
         <v>1</v>
@@ -11873,7 +11876,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="142" spans="1:57" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:57" x14ac:dyDescent="0.45">
       <c r="A142" s="1" t="s">
         <v>122</v>
       </c>
@@ -11890,20 +11893,20 @@
         <v>26</v>
       </c>
       <c r="F142" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="G142" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="H142" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="I142" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="J142" s="1" t="s">
         <v>257</v>
       </c>
-      <c r="G142" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="H142" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="I142" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="J142" s="1" t="s">
-        <v>259</v>
-      </c>
       <c r="L142" s="2">
         <v>1</v>
       </c>
@@ -11914,7 +11917,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="143" spans="1:57" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:57" x14ac:dyDescent="0.45">
       <c r="A143" s="1" t="s">
         <v>123</v>
       </c>
@@ -11928,16 +11931,16 @@
         <v>58</v>
       </c>
       <c r="F143" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="G143" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="G143" s="1" t="s">
-        <v>262</v>
-      </c>
       <c r="H143" s="1" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="I143" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="L143" s="2">
         <v>1</v>
@@ -11949,7 +11952,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="144" spans="1:57" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:57" x14ac:dyDescent="0.45">
       <c r="A144" s="1" t="s">
         <v>124</v>
       </c>
@@ -11963,16 +11966,16 @@
         <v>11</v>
       </c>
       <c r="F144" s="1" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="G144" s="1" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="H144" s="1" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="I144" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="N144" s="2">
         <v>1</v>
@@ -11981,7 +11984,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="145" spans="1:52" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:52" x14ac:dyDescent="0.45">
       <c r="A145" s="1" t="s">
         <v>125</v>
       </c>
@@ -11995,16 +11998,16 @@
         <v>34</v>
       </c>
       <c r="F145" s="1" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="G145" s="1" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="H145" s="1" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="I145" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="O145" s="2">
         <v>1</v>
@@ -12016,7 +12019,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="146" spans="1:52" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:52" x14ac:dyDescent="0.45">
       <c r="A146" s="1" t="s">
         <v>126</v>
       </c>
@@ -12030,19 +12033,19 @@
         <v>45</v>
       </c>
       <c r="F146" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="G146" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="G146" s="1" t="s">
-        <v>262</v>
-      </c>
       <c r="H146" s="1" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="I146" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="J146" s="1" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="L146" s="2">
         <v>1</v>
@@ -12057,7 +12060,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="147" spans="1:52" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:52" x14ac:dyDescent="0.45">
       <c r="A147" s="1" t="s">
         <v>127</v>
       </c>
@@ -12071,16 +12074,16 @@
         <v>16</v>
       </c>
       <c r="F147" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="G147" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="G147" s="1" t="s">
-        <v>262</v>
-      </c>
       <c r="H147" s="1" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="I147" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="L147" s="2">
         <v>1</v>
@@ -12095,13 +12098,13 @@
         <v>1</v>
       </c>
       <c r="AY147" s="11" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="AZ147" s="11" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="148" spans="1:52" x14ac:dyDescent="0.35">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="148" spans="1:52" x14ac:dyDescent="0.45">
       <c r="A148" s="1" t="s">
         <v>128</v>
       </c>
@@ -12109,7 +12112,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:52" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:52" x14ac:dyDescent="0.45">
       <c r="A149" s="1" t="s">
         <v>129</v>
       </c>
@@ -12123,16 +12126,16 @@
         <v>25</v>
       </c>
       <c r="F149" s="1" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="G149" s="1" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="H149" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="I149" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="L149" s="2">
         <v>1</v>
@@ -12150,7 +12153,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="150" spans="1:52" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:52" x14ac:dyDescent="0.45">
       <c r="A150" s="1" t="s">
         <v>130</v>
       </c>
@@ -12164,16 +12167,16 @@
         <v>21</v>
       </c>
       <c r="F150" s="1" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="G150" s="1" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="H150" s="1" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="I150" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="U150" s="2">
         <v>1</v>
@@ -12182,7 +12185,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="151" spans="1:52" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:52" x14ac:dyDescent="0.45">
       <c r="A151" s="1" t="s">
         <v>131</v>
       </c>
@@ -12196,16 +12199,16 @@
         <v>29</v>
       </c>
       <c r="F151" s="1" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="G151" s="1" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="H151" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="I151" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="L151" s="2">
         <v>0</v>
@@ -12220,7 +12223,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:52" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:52" x14ac:dyDescent="0.45">
       <c r="A152" s="1" t="s">
         <v>131</v>
       </c>
@@ -12237,16 +12240,16 @@
         <v>33</v>
       </c>
       <c r="F152" s="1" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="G152" s="1" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="H152" s="1" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="I152" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="U152" s="2">
         <v>1</v>
@@ -12255,7 +12258,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="153" spans="1:52" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:52" x14ac:dyDescent="0.45">
       <c r="A153" s="1" t="s">
         <v>132</v>
       </c>
@@ -12269,16 +12272,16 @@
         <v>36</v>
       </c>
       <c r="F153" s="1" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="G153" s="1" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="H153" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="I153" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="L153" s="2">
         <v>0</v>
@@ -12293,7 +12296,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:52" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:52" x14ac:dyDescent="0.45">
       <c r="A154" s="1" t="s">
         <v>131</v>
       </c>
@@ -12310,16 +12313,16 @@
         <v>42</v>
       </c>
       <c r="F154" s="1" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="G154" s="1" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="H154" s="1" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="I154" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="U154" s="2">
         <v>1</v>
@@ -12328,7 +12331,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="155" spans="1:52" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:52" x14ac:dyDescent="0.45">
       <c r="A155" s="1" t="s">
         <v>133</v>
       </c>
@@ -12342,16 +12345,16 @@
         <v>46</v>
       </c>
       <c r="F155" s="1" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="G155" s="1" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="H155" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="I155" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="L155" s="2">
         <v>1</v>
@@ -12369,7 +12372,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="156" spans="1:52" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:52" x14ac:dyDescent="0.45">
       <c r="A156" s="1" t="s">
         <v>134</v>
       </c>
@@ -12383,19 +12386,19 @@
         <v>3</v>
       </c>
       <c r="F156" s="1" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="G156" s="1" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="H156" s="1" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="I156" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="J156" s="1" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="L156" s="2">
         <v>1</v>
@@ -12413,7 +12416,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="157" spans="1:52" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:52" x14ac:dyDescent="0.45">
       <c r="A157" s="1" t="s">
         <v>135</v>
       </c>
@@ -12427,16 +12430,16 @@
         <v>40</v>
       </c>
       <c r="F157" s="1" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="G157" s="1" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="H157" s="1" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="I157" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="L157" s="2">
         <v>1</v>
@@ -12460,7 +12463,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:52" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:52" x14ac:dyDescent="0.45">
       <c r="A158" s="1" t="s">
         <v>136</v>
       </c>
@@ -12474,16 +12477,16 @@
         <v>49</v>
       </c>
       <c r="F158" s="1" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="G158" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="H158" s="1" t="s">
         <v>262</v>
       </c>
-      <c r="H158" s="1" t="s">
-        <v>264</v>
-      </c>
       <c r="I158" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="L158" s="2">
         <v>1</v>
@@ -12513,13 +12516,13 @@
         <v>1</v>
       </c>
       <c r="AW158" s="5" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="AX158" s="5" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="159" spans="1:52" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:52" x14ac:dyDescent="0.45">
       <c r="A159" s="1" t="s">
         <v>136</v>
       </c>
@@ -12536,40 +12539,40 @@
         <v>49</v>
       </c>
       <c r="F159" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="G159" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="H159" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="I159" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="J159" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="AI159" s="1">
+        <v>1</v>
+      </c>
+      <c r="AJ159" s="13">
+        <v>1</v>
+      </c>
+      <c r="AK159" s="13">
+        <v>1</v>
+      </c>
+      <c r="AL159" s="1">
+        <v>1</v>
+      </c>
+      <c r="AW159" s="5" t="s">
         <v>273</v>
-      </c>
-      <c r="G159" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="H159" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="I159" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="J159" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="AI159" s="1">
-        <v>1</v>
-      </c>
-      <c r="AJ159" s="13">
-        <v>1</v>
-      </c>
-      <c r="AK159" s="13">
-        <v>1</v>
-      </c>
-      <c r="AL159" s="1">
-        <v>1</v>
-      </c>
-      <c r="AW159" s="5" t="s">
-        <v>275</v>
       </c>
       <c r="AX159" s="5" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="160" spans="1:52" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:52" x14ac:dyDescent="0.45">
       <c r="A160" s="1" t="s">
         <v>137</v>
       </c>
@@ -12583,19 +12586,19 @@
         <v>37</v>
       </c>
       <c r="F160" s="1" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="G160" s="1" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="H160" s="1" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="I160" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="J160" s="1" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="L160" s="2">
         <v>1</v>
@@ -12616,7 +12619,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="161" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A161" s="1" t="s">
         <v>138</v>
       </c>
@@ -12625,7 +12628,7 @@
       </c>
       <c r="H161" s="14"/>
     </row>
-    <row r="162" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A162" s="1" t="s">
         <v>139</v>
       </c>
@@ -12639,11 +12642,11 @@
         <v>18</v>
       </c>
       <c r="F162" s="1" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="H162" s="14"/>
     </row>
-    <row r="163" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A163" s="1" t="s">
         <v>140</v>
       </c>
@@ -12657,16 +12660,16 @@
         <v>6</v>
       </c>
       <c r="F163" s="1" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="G163" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H163" s="14" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="I163" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="L163" s="2">
         <v>1</v>
@@ -12687,7 +12690,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="164" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A164" s="1" t="s">
         <v>141</v>
       </c>
@@ -12696,7 +12699,7 @@
       </c>
       <c r="H164" s="14"/>
     </row>
-    <row r="165" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A165" s="1" t="s">
         <v>142</v>
       </c>
@@ -12710,16 +12713,16 @@
         <v>39</v>
       </c>
       <c r="F165" s="1" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="G165" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H165" s="14" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="I165" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="L165" s="2">
         <v>1</v>
@@ -12740,7 +12743,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="166" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:23" x14ac:dyDescent="0.45">
       <c r="H166" s="14"/>
     </row>
   </sheetData>
